--- a/sigrity команды.xlsx
+++ b/sigrity команды.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\пособие\tcl\sigrity-rus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC33A33-CFE2-46D4-BA03-D08B4EA07475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6485DB8F-0DB5-4A9D-91AC-0A49B9E149C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,9 @@
     <sheet name="Список команд" sheetId="1" r:id="rId1"/>
     <sheet name="файлы" sheetId="2" r:id="rId2"/>
     <sheet name="Аргументы" sheetId="3" r:id="rId3"/>
-    <sheet name=" Перенос в другую папку" sheetId="4" r:id="rId4"/>
+    <sheet name="Выключить компоненты" sheetId="5" r:id="rId4"/>
+    <sheet name=" Перенос в другую папку" sheetId="4" r:id="rId5"/>
+    <sheet name="Соединить цепи" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="179">
   <si>
     <t>Цепи</t>
   </si>
@@ -382,22 +384,13 @@
     <t>Итог:</t>
   </si>
   <si>
-    <t>D25</t>
-  </si>
-  <si>
     <t>sigrity::move net {</t>
   </si>
   <si>
     <t>} {</t>
   </si>
   <si>
-    <t>Цепь1</t>
-  </si>
-  <si>
     <t xml:space="preserve">} {!} </t>
-  </si>
-  <si>
-    <t>Цепь2</t>
   </si>
   <si>
     <t>Цепь3</t>
@@ -441,16 +434,168 @@
   <si>
     <t>Цепь16</t>
   </si>
+  <si>
+    <t>sigrity::close window netManager</t>
+  </si>
+  <si>
+    <t>закрыть вкладку цепей</t>
+  </si>
+  <si>
+    <t>открыть вкладку цепей</t>
+  </si>
+  <si>
+    <t>sigrity::open window netManager</t>
+  </si>
+  <si>
+    <t>sigrity::update circuit -manual {disable} {R677} {!}</t>
+  </si>
+  <si>
+    <t>Выключить R677</t>
+  </si>
+  <si>
+    <t>sigrity::update circuit -manual {disable} {</t>
+  </si>
+  <si>
+    <t>} {!}</t>
+  </si>
+  <si>
+    <t>R677</t>
+  </si>
+  <si>
+    <t>R678</t>
+  </si>
+  <si>
+    <t>R679</t>
+  </si>
+  <si>
+    <t>R680</t>
+  </si>
+  <si>
+    <t>R681</t>
+  </si>
+  <si>
+    <t>R682</t>
+  </si>
+  <si>
+    <t>R683</t>
+  </si>
+  <si>
+    <t>R684</t>
+  </si>
+  <si>
+    <t>R744</t>
+  </si>
+  <si>
+    <t>R743</t>
+  </si>
+  <si>
+    <t>R745</t>
+  </si>
+  <si>
+    <t>R746</t>
+  </si>
+  <si>
+    <t>R747</t>
+  </si>
+  <si>
+    <t>R748</t>
+  </si>
+  <si>
+    <t>R749</t>
+  </si>
+  <si>
+    <t>R750</t>
+  </si>
+  <si>
+    <t>циклы</t>
+  </si>
+  <si>
+    <t>sigrity::begin transaction</t>
+  </si>
+  <si>
+    <t>sigrity::end transaction</t>
+  </si>
+  <si>
+    <t>начало цикла</t>
+  </si>
+  <si>
+    <t>конец цикла</t>
+  </si>
+  <si>
+    <t>Проверки</t>
+  </si>
+  <si>
+    <t>sigrity::check error</t>
+  </si>
+  <si>
+    <t>Проверка ошибок</t>
+  </si>
+  <si>
+    <t>-allLayers|-a -floating|-f -short|-s -open|-o</t>
+  </si>
+  <si>
+    <t>sigrity::check error -allLayers|-a -floating|-f -short|-s -open|-o</t>
+  </si>
+  <si>
+    <t>Выход из Sigrity</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>очитка окна</t>
+  </si>
+  <si>
+    <t>sigrity::merge net {</t>
+  </si>
+  <si>
+    <t>D25_CLK</t>
+  </si>
+  <si>
+    <t>D25_P</t>
+  </si>
+  <si>
+    <t>D25_M</t>
+  </si>
+  <si>
+    <t>SPI_CLK125_M</t>
+  </si>
+  <si>
+    <t>SPI_CLK125_P</t>
+  </si>
+  <si>
+    <t>Новое название цепи</t>
+  </si>
+  <si>
+    <t>1-я цепь</t>
+  </si>
+  <si>
+    <t>2-я цепь</t>
+  </si>
+  <si>
+    <t>sigrity::cls</t>
+  </si>
+  <si>
+    <t>sigrity::clear</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -505,8 +650,22 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,6 +688,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE2EFD9"/>
         <bgColor rgb="FFE2EFD9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -566,25 +749,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -803,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81:E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
@@ -983,8 +1182,22 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="4:6" ht="14.25" customHeight="1"/>
-    <row r="26" spans="4:6" ht="14.25" customHeight="1"/>
+    <row r="25" spans="4:6" ht="14.25" customHeight="1">
+      <c r="D25" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" ht="14.25" customHeight="1">
+      <c r="D26" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
     <row r="27" spans="4:6" ht="14.25" customHeight="1"/>
     <row r="28" spans="4:6" ht="14.25" customHeight="1"/>
     <row r="29" spans="4:6" ht="14.25" customHeight="1"/>
@@ -1011,7 +1224,7 @@
       </c>
     </row>
     <row r="34" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="16" t="s">
         <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -1019,7 +1232,7 @@
       </c>
     </row>
     <row r="35" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="16" t="s">
         <v>48</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -1208,23 +1421,65 @@
         <v>88</v>
       </c>
     </row>
-    <row r="80" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="80" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D80" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D81" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E81" s="22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D82" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E82" s="22"/>
+    </row>
+    <row r="83" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D83" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E83" s="22"/>
+    </row>
+    <row r="84" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="85" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="86" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="87" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D87" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D88" t="s">
+        <v>156</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D89" t="s">
+        <v>157</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="90" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="91" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="92" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="93" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="94" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="95" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="96" spans="4:5" ht="14.25" customHeight="1"/>
     <row r="97" spans="4:5" ht="14.25" customHeight="1"/>
     <row r="98" spans="4:5" ht="14.25" customHeight="1"/>
     <row r="99" spans="4:5" ht="14.25" customHeight="1"/>
@@ -1308,7 +1563,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="129" spans="4:5" ht="14.25" customHeight="1">
+    <row r="129" spans="4:7" ht="14.25" customHeight="1">
       <c r="D129" s="2" t="s">
         <v>103</v>
       </c>
@@ -1316,21 +1571,45 @@
         <v>104</v>
       </c>
     </row>
-    <row r="130" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="131" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="132" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="133" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="134" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="135" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="136" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="137" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="138" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="139" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="140" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="141" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="142" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="143" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="144" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="130" spans="4:7" ht="14.25" customHeight="1">
+      <c r="D130" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E130" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="131" spans="4:7" ht="14.25" customHeight="1"/>
+    <row r="132" spans="4:7" ht="14.25" customHeight="1"/>
+    <row r="133" spans="4:7" ht="14.25" customHeight="1"/>
+    <row r="134" spans="4:7" ht="14.25" customHeight="1"/>
+    <row r="135" spans="4:7" ht="14.25" customHeight="1"/>
+    <row r="136" spans="4:7" ht="14.25" customHeight="1"/>
+    <row r="137" spans="4:7" ht="14.25" customHeight="1"/>
+    <row r="138" spans="4:7" ht="14.25" customHeight="1"/>
+    <row r="139" spans="4:7" ht="14.25" customHeight="1">
+      <c r="D139" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="140" spans="4:7" ht="21.9" customHeight="1">
+      <c r="D140" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E140" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F140" t="s">
+        <v>163</v>
+      </c>
+      <c r="G140" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="141" spans="4:7" ht="14.25" customHeight="1"/>
+    <row r="142" spans="4:7" ht="14.25" customHeight="1"/>
+    <row r="143" spans="4:7" ht="14.25" customHeight="1"/>
+    <row r="144" spans="4:7" ht="14.25" customHeight="1"/>
     <row r="145" ht="14.25" customHeight="1"/>
     <row r="146" ht="14.25" customHeight="1"/>
     <row r="147" ht="14.25" customHeight="1"/>
@@ -2188,6 +2467,9 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E81:E83"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3294,10 +3576,488 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A4D6B6-B045-4AC0-AAFA-A5A197DCED8F}">
+  <dimension ref="C14:I40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6"/>
+  <cols>
+    <col min="2" max="2" width="4.61328125" customWidth="1"/>
+    <col min="3" max="5" width="9.23046875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="35.765625" customWidth="1"/>
+    <col min="7" max="7" width="16.07421875" customWidth="1"/>
+    <col min="9" max="9" width="29.23046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="14" spans="5:9">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" t="str">
+        <f>_xlfn.CONCAT(F14:H14)</f>
+        <v>sigrity::update circuit -manual {disable} {R677} {!}</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H15" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" ref="I15:I40" si="0">_xlfn.CONCAT(F15:H15)</f>
+        <v>sigrity::update circuit -manual {disable} {R678} {!}</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::update circuit -manual {disable} {R679} {!}</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9">
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::update circuit -manual {disable} {R680} {!}</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9">
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::update circuit -manual {disable} {R681} {!}</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9">
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H19" t="s">
+        <v>138</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::update circuit -manual {disable} {R682} {!}</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9">
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" t="s">
+        <v>138</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::update circuit -manual {disable} {R683} {!}</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9">
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::update circuit -manual {disable} {R684} {!}</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9">
+      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="H22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::update circuit -manual {disable} {R743} {!}</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9">
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H23" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::update circuit -manual {disable} {R744} {!}</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9">
+      <c r="E24">
+        <v>11</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" t="s">
+        <v>138</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::update circuit -manual {disable} {R745} {!}</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9">
+      <c r="E25">
+        <v>12</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" t="s">
+        <v>138</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::update circuit -manual {disable} {R746} {!}</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9">
+      <c r="E26">
+        <v>13</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::update circuit -manual {disable} {R747} {!}</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9">
+      <c r="E27">
+        <v>14</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::update circuit -manual {disable} {R748} {!}</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9">
+      <c r="E28">
+        <v>15</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="H28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::update circuit -manual {disable} {R749} {!}</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9">
+      <c r="E29">
+        <v>16</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="H29" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::update circuit -manual {disable} {R750} {!}</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9">
+      <c r="E30">
+        <v>17</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H30" t="s">
+        <v>138</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::update circuit -manual {disable} {} {!}</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9">
+      <c r="E31">
+        <v>18</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31" t="s">
+        <v>138</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::update circuit -manual {disable} {} {!}</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9">
+      <c r="E32">
+        <v>19</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" t="s">
+        <v>138</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::update circuit -manual {disable} {} {!}</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9">
+      <c r="E33">
+        <v>20</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H33" t="s">
+        <v>138</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::update circuit -manual {disable} {} {!}</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9">
+      <c r="E34">
+        <v>21</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H34" t="s">
+        <v>138</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::update circuit -manual {disable} {} {!}</v>
+      </c>
+    </row>
+    <row r="35" spans="5:9">
+      <c r="E35">
+        <v>22</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H35" t="s">
+        <v>138</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::update circuit -manual {disable} {} {!}</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9">
+      <c r="E36">
+        <v>23</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H36" t="s">
+        <v>138</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::update circuit -manual {disable} {} {!}</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9">
+      <c r="E37">
+        <v>24</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::update circuit -manual {disable} {} {!}</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9">
+      <c r="E38">
+        <v>25</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H38" t="s">
+        <v>138</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::update circuit -manual {disable} {} {!}</v>
+      </c>
+    </row>
+    <row r="39" spans="5:9">
+      <c r="E39">
+        <v>26</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H39" t="s">
+        <v>138</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::update circuit -manual {disable} {} {!}</v>
+      </c>
+    </row>
+    <row r="40" spans="5:9">
+      <c r="E40">
+        <v>27</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H40" t="s">
+        <v>138</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::update circuit -manual {disable} {} {!}</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -3410,8 +4170,8 @@
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="10" t="s">
-        <v>114</v>
+      <c r="E4" s="15" t="s">
+        <v>169</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -3470,26 +4230,26 @@
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" s="8" t="str">
         <f>E4</f>
-        <v>D25</v>
+        <v>D25_CLK</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>172</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J6" s="8"/>
-      <c r="K6" s="11" t="e">
-        <f t="shared" ref="K6:K21" ca="1" si="0">_xludf.CONCAT(D6:I6)</f>
-        <v>#NAME?</v>
+      <c r="K6" s="14" t="str">
+        <f>_xlfn.CONCAT(D6:I6)</f>
+        <v xml:space="preserve">sigrity::move net {D25_CLK} {SPI_CLK125_M} {!} </v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
@@ -3514,26 +4274,26 @@
         <v>2</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="8" t="str">
         <f>E4</f>
-        <v>D25</v>
+        <v>D25_CLK</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J7" s="8"/>
-      <c r="K7" s="11" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="K7" s="14" t="str">
+        <f t="shared" ref="K7:K21" si="0">_xlfn.CONCAT(D7:I7)</f>
+        <v xml:space="preserve">sigrity::move net {D25_CLK} {SPI_CLK125_P} {!} </v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
@@ -3558,26 +4318,26 @@
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" s="8" t="str">
         <f>E6</f>
-        <v>D25</v>
+        <v>D25_CLK</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J8" s="8"/>
-      <c r="K8" s="11" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="K8" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">sigrity::move net {D25_CLK} {Цепь3} {!} </v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -3602,26 +4362,26 @@
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" s="8" t="str">
         <f>E6</f>
-        <v>D25</v>
+        <v>D25_CLK</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J9" s="8"/>
-      <c r="K9" s="11" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="K9" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">sigrity::move net {D25_CLK} {Цепь4} {!} </v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -3646,26 +4406,26 @@
         <v>5</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10" s="8" t="str">
         <f>E8</f>
-        <v>D25</v>
+        <v>D25_CLK</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J10" s="8"/>
-      <c r="K10" s="11" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="K10" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">sigrity::move net {D25_CLK} {Цепь5} {!} </v>
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
@@ -3690,26 +4450,26 @@
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" s="8" t="str">
         <f>E8</f>
-        <v>D25</v>
+        <v>D25_CLK</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J11" s="8"/>
-      <c r="K11" s="11" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="K11" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">sigrity::move net {D25_CLK} {Цепь6} {!} </v>
       </c>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
@@ -3734,26 +4494,26 @@
         <v>7</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12" s="8" t="str">
         <f>E10</f>
-        <v>D25</v>
+        <v>D25_CLK</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J12" s="8"/>
-      <c r="K12" s="11" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="K12" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">sigrity::move net {D25_CLK} {Цепь7} {!} </v>
       </c>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
@@ -3778,26 +4538,26 @@
         <v>8</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="8" t="str">
         <f>E10</f>
-        <v>D25</v>
+        <v>D25_CLK</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J13" s="8"/>
-      <c r="K13" s="11" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="K13" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">sigrity::move net {D25_CLK} {Цепь8} {!} </v>
       </c>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
@@ -3822,26 +4582,26 @@
         <v>9</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14" s="8" t="str">
         <f>E12</f>
-        <v>D25</v>
+        <v>D25_CLK</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J14" s="8"/>
-      <c r="K14" s="11" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="K14" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">sigrity::move net {D25_CLK} {Цепь9} {!} </v>
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
@@ -3866,26 +4626,26 @@
         <v>10</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E15" s="8" t="str">
         <f>E12</f>
-        <v>D25</v>
+        <v>D25_CLK</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J15" s="8"/>
-      <c r="K15" s="11" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="K15" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">sigrity::move net {D25_CLK} {Цепь10} {!} </v>
       </c>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
@@ -3910,26 +4670,26 @@
         <v>11</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E16" s="8" t="str">
         <f>E14</f>
-        <v>D25</v>
+        <v>D25_CLK</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J16" s="8"/>
-      <c r="K16" s="11" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="K16" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">sigrity::move net {D25_CLK} {Цепь11} {!} </v>
       </c>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
@@ -3954,26 +4714,26 @@
         <v>12</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E17" s="8" t="str">
         <f>E14</f>
-        <v>D25</v>
+        <v>D25_CLK</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J17" s="8"/>
-      <c r="K17" s="11" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="K17" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">sigrity::move net {D25_CLK} {Цепь12} {!} </v>
       </c>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
@@ -3998,26 +4758,26 @@
         <v>13</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E18" s="8" t="str">
         <f>E16</f>
-        <v>D25</v>
+        <v>D25_CLK</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J18" s="8"/>
-      <c r="K18" s="11" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="K18" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">sigrity::move net {D25_CLK} {Цепь13} {!} </v>
       </c>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
@@ -4042,26 +4802,26 @@
         <v>14</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E19" s="8" t="str">
         <f>E16</f>
-        <v>D25</v>
+        <v>D25_CLK</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J19" s="8"/>
-      <c r="K19" s="11" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="K19" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">sigrity::move net {D25_CLK} {Цепь14} {!} </v>
       </c>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
@@ -4086,26 +4846,26 @@
         <v>15</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20" s="8" t="str">
         <f>E18</f>
-        <v>D25</v>
+        <v>D25_CLK</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J20" s="8"/>
-      <c r="K20" s="11" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="K20" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">sigrity::move net {D25_CLK} {Цепь15} {!} </v>
       </c>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
@@ -4130,26 +4890,26 @@
         <v>16</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E21" s="8" t="str">
         <f>E18</f>
-        <v>D25</v>
+        <v>D25_CLK</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J21" s="8"/>
-      <c r="K21" s="11" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="K21" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">sigrity::move net {D25_CLK} {Цепь16} {!} </v>
       </c>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
@@ -31580,7 +32340,104 @@
       <c r="Z1000" s="8"/>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" autoFilter="0" pivotTables="0"/>
+  <protectedRanges>
+    <protectedRange algorithmName="SHA-512" hashValue="DZx22gg+X/9zkTst7q16atWd78m77fskm4Fff9WV/Reyyrme0971U4JUeRkcKKPPZZefvjGur9kwsqvONH3jYg==" saltValue="eogJl3ZVcFFUinHYKH4mxA==" spinCount="100000" sqref="K6:K21" name="Диапазон1"/>
+  </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA5A2B6-0388-4C8C-B12B-D966D6DA55C6}">
+  <dimension ref="E11:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12:K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6"/>
+  <cols>
+    <col min="4" max="4" width="7.53515625" customWidth="1"/>
+    <col min="5" max="5" width="9.23046875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="21.4609375" customWidth="1"/>
+    <col min="7" max="7" width="22.07421875" customWidth="1"/>
+    <col min="8" max="8" width="2.53515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.23046875" customWidth="1"/>
+    <col min="10" max="10" width="2.53515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="6:13">
+      <c r="G11" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="6:13" ht="15.45">
+      <c r="F12" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT(F12:L12)</f>
+        <v>sigrity::merge net {SPI_CLK125_P} {SPI_CLK125_P} {D25_M} {!}</v>
+      </c>
+    </row>
+    <row r="13" spans="6:13" ht="15.45">
+      <c r="F13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J13" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="str">
+        <f>_xlfn.CONCAT(F13:L13)</f>
+        <v>sigrity::merge net {SPI_CLK125_M} {SPI_CLK125_M} {D25_P} {!}</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sigrity команды.xlsx
+++ b/sigrity команды.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\пособие\tcl\sigrity-rus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6485DB8F-0DB5-4A9D-91AC-0A49B9E149C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAD26A3-B52E-4E48-A620-00BB51C2AF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="194">
   <si>
     <t>Цепи</t>
   </si>
@@ -578,16 +578,69 @@
   <si>
     <t>sigrity::clear</t>
   </si>
+  <si>
+    <t>Итоги симуляции (Network Parameter Display)</t>
+  </si>
+  <si>
+    <t>sigrity::update CurveView -view {Differential Channel View} {!}</t>
+  </si>
+  <si>
+    <t>sigrity::update CurveView -view {Normal View} {!}</t>
+  </si>
+  <si>
+    <t>просмотр в режиме Differential Channel View</t>
+  </si>
+  <si>
+    <t>Просмотр в Noral mode</t>
+  </si>
+  <si>
+    <t>sigrity::add CurveMask -MaskFile {E:\SGMII Mode - TX.mask} {!}</t>
+  </si>
+  <si>
+    <t>Применить маску , расположенную в E:\SGMII Mode - TX.mask</t>
+  </si>
+  <si>
+    <t>sigrity::update CurveView -source {S} -method {Amplitude} -XLog {0} -YLog {1} {!}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Просмотр в режиме шкалы Y в логарифмической шкале </t>
+  </si>
+  <si>
+    <t>sigrity::update CurveView -Fit {!}</t>
+  </si>
+  <si>
+    <t>sigrity::operate CurveView -network {E:\project\2.bnp} -ChannelFilter -ReturnLoss {1} -InsertionLoss {0} -CrossTalk {0} -Channel { QSGMII_RX4_M&lt;--&gt;QSGMII_RX4_P} {!}</t>
+  </si>
+  <si>
+    <t>Отображение в виде Fit (масштаб по умолчанию ставит)</t>
+  </si>
+  <si>
+    <t>Отображени цепей |QSGMII_RX4_M| и |QSGMII_RX4_P|  из файла |E:\project\2.bnp| только в режиме отражеий (Return Loss)</t>
+  </si>
+  <si>
+    <t>sigrity::close CurveFile -all {!}</t>
+  </si>
+  <si>
+    <t>выгрузить все .bnp файлы в списке Network Parameters</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -749,42 +802,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1002,14 +1065,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81:E83"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="8.69140625" customWidth="1"/>
-    <col min="4" max="4" width="70.15234375" customWidth="1"/>
+    <col min="4" max="4" width="84.61328125" customWidth="1"/>
     <col min="5" max="5" width="85.69140625" customWidth="1"/>
     <col min="6" max="6" width="57.84375" customWidth="1"/>
     <col min="7" max="7" width="83.15234375" customWidth="1"/>
@@ -1224,7 +1287,7 @@
       </c>
     </row>
     <row r="34" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="26" t="s">
         <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -1232,7 +1295,7 @@
       </c>
     </row>
     <row r="35" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="26" t="s">
         <v>48</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -1433,7 +1496,7 @@
       <c r="D81" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="E81" s="22" t="s">
+      <c r="E81" s="21" t="s">
         <v>167</v>
       </c>
     </row>
@@ -1441,13 +1504,13 @@
       <c r="D82" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="E82" s="22"/>
+      <c r="E82" s="21"/>
     </row>
     <row r="83" spans="4:5" ht="14.25" customHeight="1">
       <c r="D83" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="E83" s="22"/>
+      <c r="E83" s="21"/>
     </row>
     <row r="84" spans="4:5" ht="14.25" customHeight="1"/>
     <row r="85" spans="4:5" ht="14.25" customHeight="1"/>
@@ -1588,7 +1651,7 @@
     <row r="137" spans="4:7" ht="14.25" customHeight="1"/>
     <row r="138" spans="4:7" ht="14.25" customHeight="1"/>
     <row r="139" spans="4:7" ht="14.25" customHeight="1">
-      <c r="D139" s="13" t="s">
+      <c r="D139" s="12" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1610,22 +1673,78 @@
     <row r="142" spans="4:7" ht="14.25" customHeight="1"/>
     <row r="143" spans="4:7" ht="14.25" customHeight="1"/>
     <row r="144" spans="4:7" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="145" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D145" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="146" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D146" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E146" s="22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="147" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D147" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E147" s="22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="148" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D148" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="E148" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="149" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D149" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="E149" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="150" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D150" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="E150" s="22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="151" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D151" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E151" s="24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="152" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D152" s="23"/>
+      <c r="E152" s="25"/>
+    </row>
+    <row r="153" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D153" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E153" s="22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="154" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="155" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="156" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="157" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="158" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="159" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="160" spans="4:5" ht="14.25" customHeight="1"/>
     <row r="161" ht="14.25" customHeight="1"/>
     <row r="162" ht="14.25" customHeight="1"/>
     <row r="163" ht="14.25" customHeight="1"/>
@@ -2467,8 +2586,10 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="E81:E83"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:E152"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4046,7 +4167,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -32354,7 +32475,7 @@
   <dimension ref="E11:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12:K13"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -32370,15 +32491,15 @@
   </cols>
   <sheetData>
     <row r="11" spans="6:13">
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17" t="s">
+      <c r="H11" s="16"/>
+      <c r="I11" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17" t="s">
+      <c r="J11" s="16"/>
+      <c r="K11" s="16" t="s">
         <v>176</v>
       </c>
     </row>
@@ -32386,19 +32507,19 @@
       <c r="F12" t="s">
         <v>168</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="19" t="s">
         <v>173</v>
       </c>
       <c r="J12" t="s">
         <v>115</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="20" t="s">
         <v>171</v>
       </c>
       <c r="L12" t="s">
@@ -32413,19 +32534,19 @@
       <c r="F13" t="s">
         <v>168</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="19" t="s">
         <v>172</v>
       </c>
       <c r="J13" t="s">
         <v>115</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="K13" s="20" t="s">
         <v>170</v>
       </c>
       <c r="L13" t="s">

--- a/sigrity команды.xlsx
+++ b/sigrity команды.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\пособие\tcl\sigrity-rus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4777C19F-4009-41BB-9A8D-7E717C5D506C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D963DE-8800-4036-BEAF-15F4855625C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="файлы" sheetId="2" r:id="rId2"/>
     <sheet name="Аргументы" sheetId="3" r:id="rId3"/>
     <sheet name="Выключить компоненты" sheetId="5" r:id="rId4"/>
+    <sheet name="Разъединить" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="251">
   <si>
     <t>Цепи</t>
   </si>
@@ -542,13 +543,262 @@
   </si>
   <si>
     <t>sigrity::update net Polarity -switch {Цепь1} {Цепь2} {!}</t>
+  </si>
+  <si>
+    <t>sigrity::operate CurveView -network {SIMULATION} -CurveGroup {0} -HideCurve {4} {4} {!}</t>
+  </si>
+  <si>
+    <t>Скрыть цепь с номером [4;4] из итогов симуляции</t>
+  </si>
+  <si>
+    <t>sigrity::operate CurveView -network {SIMULATION} -CurveGroup {0} -ShowCurve {4} {4}</t>
+  </si>
+  <si>
+    <t>Отобразить цепь с номером [4;4] из итогов симуляции</t>
+  </si>
+  <si>
+    <t>sigrity::add circuit {0U1} -def {C0402T10-C1005X7R1H104K050BB_CB_copy} -start 1 -end 30 {!}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Создать 30 элементов [1..30] с моделью {C0402T10-C1005X7R1H104K050BB_CB} </t>
+  </si>
+  <si>
+    <t>sigrity::link {10uf02} {1} {Node87452::GND_DIGITAL} {!}</t>
+  </si>
+  <si>
+    <t>Соединить [1] вывод элемента [10uf02] с выводом на плате [Node87452::GND_DIGITAL]</t>
+  </si>
+  <si>
+    <t>sigrity::unlink {1U03} -all {!}</t>
+  </si>
+  <si>
+    <t>Отсоединить все выводы у элемента [1U03]</t>
+  </si>
+  <si>
+    <t>sigrity::unlink {</t>
+  </si>
+  <si>
+    <t>} -all {!}</t>
+  </si>
+  <si>
+    <t>zakorotka_01</t>
+  </si>
+  <si>
+    <t>zakorotka_02</t>
+  </si>
+  <si>
+    <t>zakorotka_03</t>
+  </si>
+  <si>
+    <t>zakorotka_04</t>
+  </si>
+  <si>
+    <t>zakorotka_05</t>
+  </si>
+  <si>
+    <t>zakorotka_06</t>
+  </si>
+  <si>
+    <t>zakorotka_07</t>
+  </si>
+  <si>
+    <t>zakorotka_08</t>
+  </si>
+  <si>
+    <t>zakorotka_09</t>
+  </si>
+  <si>
+    <t>zakorotka_10</t>
+  </si>
+  <si>
+    <t>zakorotka_11</t>
+  </si>
+  <si>
+    <t>zakorotka_12</t>
+  </si>
+  <si>
+    <t>zakorotka_13</t>
+  </si>
+  <si>
+    <t>zakorotka_14</t>
+  </si>
+  <si>
+    <t>zakorotka_15</t>
+  </si>
+  <si>
+    <t>zakorotka_16</t>
+  </si>
+  <si>
+    <t>zakorotka_17</t>
+  </si>
+  <si>
+    <t>zakorotka_18</t>
+  </si>
+  <si>
+    <t>zakorotka_19</t>
+  </si>
+  <si>
+    <t>zakorotka_20</t>
+  </si>
+  <si>
+    <t>zakorotka_21</t>
+  </si>
+  <si>
+    <t>zakorotka_22</t>
+  </si>
+  <si>
+    <t>zakorotka_23</t>
+  </si>
+  <si>
+    <t>zakorotka_24</t>
+  </si>
+  <si>
+    <t>zakorotka_25</t>
+  </si>
+  <si>
+    <t>zakorotka_26</t>
+  </si>
+  <si>
+    <t>zakorotka_27</t>
+  </si>
+  <si>
+    <t>zakorotka_28</t>
+  </si>
+  <si>
+    <t>zakorotka_29</t>
+  </si>
+  <si>
+    <t>zakorotka_30</t>
+  </si>
+  <si>
+    <t>zakorotka_31</t>
+  </si>
+  <si>
+    <t>zakorotka_32</t>
+  </si>
+  <si>
+    <t>zakorotka_33</t>
+  </si>
+  <si>
+    <t>zakorotka_34</t>
+  </si>
+  <si>
+    <t>zakorotka_35</t>
+  </si>
+  <si>
+    <t>zakorotka_36</t>
+  </si>
+  <si>
+    <t>zakorotka_37</t>
+  </si>
+  <si>
+    <t>zakorotka_38</t>
+  </si>
+  <si>
+    <t>zakorotka_39</t>
+  </si>
+  <si>
+    <t>zakorotka_40</t>
+  </si>
+  <si>
+    <t>zakorotka_41</t>
+  </si>
+  <si>
+    <t>zakorotka_42</t>
+  </si>
+  <si>
+    <t>zakorotka_43</t>
+  </si>
+  <si>
+    <t>zakorotka_44</t>
+  </si>
+  <si>
+    <t>zakorotka_45</t>
+  </si>
+  <si>
+    <t>zakorotka_46</t>
+  </si>
+  <si>
+    <t>zakorotka_47</t>
+  </si>
+  <si>
+    <t>zakorotka_48</t>
+  </si>
+  <si>
+    <t>zakorotka_49</t>
+  </si>
+  <si>
+    <t>zakorotka_50</t>
+  </si>
+  <si>
+    <t>zakorotka_51</t>
+  </si>
+  <si>
+    <t>zakorotka_52</t>
+  </si>
+  <si>
+    <t>zakorotka_53</t>
+  </si>
+  <si>
+    <t>zakorotka_54</t>
+  </si>
+  <si>
+    <t>zakorotka_55</t>
+  </si>
+  <si>
+    <t>zakorotka_56</t>
+  </si>
+  <si>
+    <t>zakorotka_57</t>
+  </si>
+  <si>
+    <t>zakorotka_58</t>
+  </si>
+  <si>
+    <t>zakorotka_59</t>
+  </si>
+  <si>
+    <t>zakorotka_60</t>
+  </si>
+  <si>
+    <t>Симуляция</t>
+  </si>
+  <si>
+    <t>sigrity::update option -ModifyProcessPriority {256} {!}</t>
+  </si>
+  <si>
+    <t>Установить приоритет в режиме реального времени</t>
+  </si>
+  <si>
+    <t>sigrity::update option -MaxCPUPer {100} {!}</t>
+  </si>
+  <si>
+    <t>Установить использования процессора на 100%</t>
+  </si>
+  <si>
+    <t>sigrity::hook -port {Port18_D18:VCC_5V} -PositiveNode {Node570!!2::VCC_5V} {!}</t>
+  </si>
+  <si>
+    <t>Добавить порту [Port18_D18:VCC_5V] положительного вывода [Node570!!2::VCC_5V]</t>
+  </si>
+  <si>
+    <t>sigrity::hook -port {Port18_D18:VCC_5V} -NegativeNode {Node697!!2::GND_DIGITAL} {!}</t>
+  </si>
+  <si>
+    <t>Добавить порту [Port18_D18:VCC_5V] отрицательного вывода [Node697!!2::GND_DIGITAL]</t>
+  </si>
+  <si>
+    <t>sigrity::update circuit -name {5v-X11-sim} {NewExcitationCkt2} {!}</t>
+  </si>
+  <si>
+    <t>Изменение назания компонента с [NewExcitationCkt2] на [5v-X11-sim]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,21 +830,51 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -625,6 +905,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -669,39 +954,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -919,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D1:G1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
@@ -1019,10 +1307,10 @@
       </c>
     </row>
     <row r="14" spans="4:7" ht="14.25" customHeight="1">
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="13" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1165,7 +1453,7 @@
       </c>
     </row>
     <row r="38" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="12" t="s">
         <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -1173,7 +1461,7 @@
       </c>
     </row>
     <row r="39" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -1188,8 +1476,22 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="42" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="41" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D41" t="s">
+        <v>245</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D42" t="s">
+        <v>247</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>248</v>
+      </c>
+    </row>
     <row r="43" spans="4:5" ht="14.25" customHeight="1"/>
     <row r="44" spans="4:5" ht="14.25" customHeight="1"/>
     <row r="45" spans="4:5" ht="14.25" customHeight="1"/>
@@ -1250,14 +1552,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D70" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
+    <row r="70" spans="4:5" ht="14.25" customHeight="1"/>
     <row r="71" spans="4:5" ht="14.25" customHeight="1">
       <c r="D71" s="4" t="s">
         <v>63</v>
@@ -1374,7 +1669,7 @@
       <c r="D85" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E85" s="12" t="s">
+      <c r="E85" s="17" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1382,13 +1677,13 @@
       <c r="D86" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E86" s="12"/>
+      <c r="E86" s="17"/>
     </row>
     <row r="87" spans="4:5" ht="14.25" customHeight="1">
       <c r="D87" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E87" s="12"/>
+      <c r="E87" s="17"/>
     </row>
     <row r="88" spans="4:5" ht="14.25" customHeight="1"/>
     <row r="89" spans="4:5" ht="14.25" customHeight="1"/>
@@ -1520,10 +1815,38 @@
         <v>115</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="14.25" customHeight="1"/>
-    <row r="136" spans="4:7" ht="14.25" customHeight="1"/>
-    <row r="137" spans="4:7" ht="14.25" customHeight="1"/>
-    <row r="138" spans="4:7" ht="14.25" customHeight="1"/>
+    <row r="135" spans="4:7" ht="14.25" customHeight="1">
+      <c r="D135" t="s">
+        <v>172</v>
+      </c>
+      <c r="E135" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="136" spans="4:7" ht="14.25" customHeight="1">
+      <c r="D136" t="s">
+        <v>174</v>
+      </c>
+      <c r="E136" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="137" spans="4:7" ht="14.25" customHeight="1">
+      <c r="D137" t="s">
+        <v>176</v>
+      </c>
+      <c r="E137" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="138" spans="4:7" ht="14.25" customHeight="1">
+      <c r="D138" t="s">
+        <v>249</v>
+      </c>
+      <c r="E138" t="s">
+        <v>250</v>
+      </c>
+    </row>
     <row r="139" spans="4:7" ht="14.25" customHeight="1"/>
     <row r="140" spans="4:7" ht="14.25" customHeight="1"/>
     <row r="141" spans="4:7" ht="14.25" customHeight="1"/>
@@ -1597,44 +1920,87 @@
       </c>
     </row>
     <row r="155" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D155" s="13" t="s">
+      <c r="D155" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="E155" s="14" t="s">
+      <c r="E155" s="19" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="156" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D156" s="13"/>
-      <c r="E156" s="15"/>
+      <c r="D156" s="18"/>
+      <c r="E156" s="20"/>
     </row>
     <row r="157" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D157" s="10" t="s">
+      <c r="D157" s="14" t="s">
         <v>162</v>
       </c>
       <c r="E157" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="158" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="159" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="158" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D158" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E158" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="159" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D159" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E159" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
     <row r="160" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="161" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="162" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="163" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D163" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="164" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D164" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="165" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="166" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="167" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D167" t="s">
+        <v>241</v>
+      </c>
+      <c r="E167" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="168" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D168" t="s">
+        <v>243</v>
+      </c>
+      <c r="E168" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="169" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D169" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="170" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="171" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="172" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="173" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="174" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="175" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="176" spans="4:5" ht="14.25" customHeight="1"/>
     <row r="177" ht="14.25" customHeight="1"/>
     <row r="178" ht="14.25" customHeight="1"/>
     <row r="179" ht="14.25" customHeight="1"/>
@@ -3579,7 +3945,7 @@
   <dimension ref="C14:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+      <selection activeCell="F14" sqref="F14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -4045,7 +4411,1397 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDB6C01-246F-4773-9AF1-52EA01D42F3C}">
+  <dimension ref="G16:J192"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:J76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6"/>
+  <cols>
+    <col min="7" max="7" width="54.69140625" customWidth="1"/>
+    <col min="8" max="8" width="26.921875" customWidth="1"/>
+    <col min="10" max="10" width="41.53515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="16" spans="7:7">
+      <c r="G16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10">
+      <c r="G17" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="I17" t="s">
+        <v>179</v>
+      </c>
+      <c r="J17" t="str">
+        <f>_xlfn.CONCAT(G17:I17)</f>
+        <v>sigrity::unlink {zakorotka_01} -all {!}</v>
+      </c>
+    </row>
+    <row r="18" spans="7:10">
+      <c r="G18" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" t="str">
+        <f>_xlfn.CONCAT(G18:I18)</f>
+        <v>sigrity::unlink {zakorotka_02} -all {!}</v>
+      </c>
+    </row>
+    <row r="19" spans="7:10">
+      <c r="G19" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="I19" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" ref="J19:J76" si="0">_xlfn.CONCAT(G19:I19)</f>
+        <v>sigrity::unlink {zakorotka_03} -all {!}</v>
+      </c>
+    </row>
+    <row r="20" spans="7:10">
+      <c r="G20" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="I20" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_04} -all {!}</v>
+      </c>
+    </row>
+    <row r="21" spans="7:10">
+      <c r="G21" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="I21" t="s">
+        <v>179</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_05} -all {!}</v>
+      </c>
+    </row>
+    <row r="22" spans="7:10">
+      <c r="G22" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="I22" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_06} -all {!}</v>
+      </c>
+    </row>
+    <row r="23" spans="7:10">
+      <c r="G23" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="I23" t="s">
+        <v>179</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_07} -all {!}</v>
+      </c>
+    </row>
+    <row r="24" spans="7:10">
+      <c r="G24" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="I24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_08} -all {!}</v>
+      </c>
+    </row>
+    <row r="25" spans="7:10">
+      <c r="G25" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="I25" t="s">
+        <v>179</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_09} -all {!}</v>
+      </c>
+    </row>
+    <row r="26" spans="7:10">
+      <c r="G26" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="I26" t="s">
+        <v>179</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_10} -all {!}</v>
+      </c>
+    </row>
+    <row r="27" spans="7:10">
+      <c r="G27" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="I27" t="s">
+        <v>179</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_11} -all {!}</v>
+      </c>
+    </row>
+    <row r="28" spans="7:10">
+      <c r="G28" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="I28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_12} -all {!}</v>
+      </c>
+    </row>
+    <row r="29" spans="7:10">
+      <c r="G29" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I29" t="s">
+        <v>179</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_13} -all {!}</v>
+      </c>
+    </row>
+    <row r="30" spans="7:10">
+      <c r="G30" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="I30" t="s">
+        <v>179</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_14} -all {!}</v>
+      </c>
+    </row>
+    <row r="31" spans="7:10">
+      <c r="G31" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="I31" t="s">
+        <v>179</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_15} -all {!}</v>
+      </c>
+    </row>
+    <row r="32" spans="7:10">
+      <c r="G32" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="I32" t="s">
+        <v>179</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_16} -all {!}</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10">
+      <c r="G33" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="I33" t="s">
+        <v>179</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_17} -all {!}</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10">
+      <c r="G34" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="I34" t="s">
+        <v>179</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_18} -all {!}</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10">
+      <c r="G35" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="I35" t="s">
+        <v>179</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_19} -all {!}</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10">
+      <c r="G36" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="I36" t="s">
+        <v>179</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_20} -all {!}</v>
+      </c>
+    </row>
+    <row r="37" spans="7:10">
+      <c r="G37" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="I37" t="s">
+        <v>179</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_21} -all {!}</v>
+      </c>
+    </row>
+    <row r="38" spans="7:10">
+      <c r="G38" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="I38" t="s">
+        <v>179</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_22} -all {!}</v>
+      </c>
+    </row>
+    <row r="39" spans="7:10">
+      <c r="G39" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="I39" t="s">
+        <v>179</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_23} -all {!}</v>
+      </c>
+    </row>
+    <row r="40" spans="7:10">
+      <c r="G40" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="I40" t="s">
+        <v>179</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_24} -all {!}</v>
+      </c>
+    </row>
+    <row r="41" spans="7:10">
+      <c r="G41" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="I41" t="s">
+        <v>179</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_25} -all {!}</v>
+      </c>
+    </row>
+    <row r="42" spans="7:10">
+      <c r="G42" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="I42" t="s">
+        <v>179</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_26} -all {!}</v>
+      </c>
+    </row>
+    <row r="43" spans="7:10">
+      <c r="G43" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="I43" t="s">
+        <v>179</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_27} -all {!}</v>
+      </c>
+    </row>
+    <row r="44" spans="7:10">
+      <c r="G44" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="I44" t="s">
+        <v>179</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_28} -all {!}</v>
+      </c>
+    </row>
+    <row r="45" spans="7:10">
+      <c r="G45" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="I45" t="s">
+        <v>179</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_29} -all {!}</v>
+      </c>
+    </row>
+    <row r="46" spans="7:10">
+      <c r="G46" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="I46" t="s">
+        <v>179</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_30} -all {!}</v>
+      </c>
+    </row>
+    <row r="47" spans="7:10">
+      <c r="G47" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="I47" t="s">
+        <v>179</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_31} -all {!}</v>
+      </c>
+    </row>
+    <row r="48" spans="7:10">
+      <c r="G48" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="I48" t="s">
+        <v>179</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_32} -all {!}</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10">
+      <c r="G49" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="I49" t="s">
+        <v>179</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_33} -all {!}</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10">
+      <c r="G50" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="I50" t="s">
+        <v>179</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_34} -all {!}</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10">
+      <c r="G51" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="I51" t="s">
+        <v>179</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_35} -all {!}</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10">
+      <c r="G52" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="I52" t="s">
+        <v>179</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_36} -all {!}</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10">
+      <c r="G53" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I53" t="s">
+        <v>179</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_37} -all {!}</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10">
+      <c r="G54" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="I54" t="s">
+        <v>179</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_38} -all {!}</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10">
+      <c r="G55" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="I55" t="s">
+        <v>179</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_39} -all {!}</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10">
+      <c r="G56" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="I56" t="s">
+        <v>179</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_40} -all {!}</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10">
+      <c r="G57" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I57" t="s">
+        <v>179</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_41} -all {!}</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10">
+      <c r="G58" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="I58" t="s">
+        <v>179</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_42} -all {!}</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10">
+      <c r="G59" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="I59" t="s">
+        <v>179</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_43} -all {!}</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10">
+      <c r="G60" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="I60" t="s">
+        <v>179</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_44} -all {!}</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10">
+      <c r="G61" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="I61" t="s">
+        <v>179</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_45} -all {!}</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10">
+      <c r="G62" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="I62" t="s">
+        <v>179</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_46} -all {!}</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10">
+      <c r="G63" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="I63" t="s">
+        <v>179</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_47} -all {!}</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10">
+      <c r="G64" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="I64" t="s">
+        <v>179</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_48} -all {!}</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10">
+      <c r="G65" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="I65" t="s">
+        <v>179</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_49} -all {!}</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10">
+      <c r="G66" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="I66" t="s">
+        <v>179</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_50} -all {!}</v>
+      </c>
+    </row>
+    <row r="67" spans="7:10">
+      <c r="G67" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I67" t="s">
+        <v>179</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_51} -all {!}</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10">
+      <c r="G68" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="I68" t="s">
+        <v>179</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_52} -all {!}</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10">
+      <c r="G69" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="I69" t="s">
+        <v>179</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_53} -all {!}</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10">
+      <c r="G70" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="I70" t="s">
+        <v>179</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_54} -all {!}</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10">
+      <c r="G71" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="I71" t="s">
+        <v>179</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_55} -all {!}</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10">
+      <c r="G72" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="I72" t="s">
+        <v>179</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_56} -all {!}</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10">
+      <c r="G73" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="I73" t="s">
+        <v>179</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_57} -all {!}</v>
+      </c>
+    </row>
+    <row r="74" spans="7:10">
+      <c r="G74" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="I74" t="s">
+        <v>179</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_58} -all {!}</v>
+      </c>
+    </row>
+    <row r="75" spans="7:10">
+      <c r="G75" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="I75" t="s">
+        <v>179</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_59} -all {!}</v>
+      </c>
+    </row>
+    <row r="76" spans="7:10">
+      <c r="G76" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="I76" t="s">
+        <v>179</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_60} -all {!}</v>
+      </c>
+    </row>
+    <row r="77" spans="7:10">
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+    </row>
+    <row r="78" spans="7:10">
+      <c r="G78" s="9"/>
+      <c r="H78" s="15"/>
+    </row>
+    <row r="79" spans="7:10">
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+    </row>
+    <row r="80" spans="7:10">
+      <c r="G80" s="9"/>
+      <c r="H80" s="15"/>
+    </row>
+    <row r="81" spans="7:8">
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+    </row>
+    <row r="82" spans="7:8">
+      <c r="G82" s="9"/>
+      <c r="H82" s="15"/>
+    </row>
+    <row r="83" spans="7:8">
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+    </row>
+    <row r="84" spans="7:8">
+      <c r="G84" s="9"/>
+      <c r="H84" s="15"/>
+    </row>
+    <row r="85" spans="7:8">
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+    </row>
+    <row r="86" spans="7:8">
+      <c r="G86" s="9"/>
+      <c r="H86" s="15"/>
+    </row>
+    <row r="87" spans="7:8">
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+    </row>
+    <row r="88" spans="7:8">
+      <c r="G88" s="9"/>
+      <c r="H88" s="15"/>
+    </row>
+    <row r="89" spans="7:8">
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+    </row>
+    <row r="90" spans="7:8">
+      <c r="G90" s="9"/>
+      <c r="H90" s="15"/>
+    </row>
+    <row r="91" spans="7:8">
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+    </row>
+    <row r="92" spans="7:8">
+      <c r="G92" s="9"/>
+      <c r="H92" s="15"/>
+    </row>
+    <row r="93" spans="7:8">
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+    </row>
+    <row r="94" spans="7:8">
+      <c r="G94" s="9"/>
+      <c r="H94" s="15"/>
+    </row>
+    <row r="95" spans="7:8">
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+    </row>
+    <row r="96" spans="7:8">
+      <c r="G96" s="9"/>
+      <c r="H96" s="15"/>
+    </row>
+    <row r="97" spans="7:8">
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+    </row>
+    <row r="98" spans="7:8">
+      <c r="G98" s="9"/>
+      <c r="H98" s="15"/>
+    </row>
+    <row r="99" spans="7:8">
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+    </row>
+    <row r="100" spans="7:8">
+      <c r="G100" s="9"/>
+      <c r="H100" s="15"/>
+    </row>
+    <row r="101" spans="7:8">
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+    </row>
+    <row r="102" spans="7:8">
+      <c r="G102" s="9"/>
+      <c r="H102" s="15"/>
+    </row>
+    <row r="103" spans="7:8">
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+    </row>
+    <row r="104" spans="7:8">
+      <c r="G104" s="9"/>
+      <c r="H104" s="15"/>
+    </row>
+    <row r="105" spans="7:8">
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+    </row>
+    <row r="106" spans="7:8">
+      <c r="G106" s="9"/>
+      <c r="H106" s="15"/>
+    </row>
+    <row r="107" spans="7:8">
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+    </row>
+    <row r="108" spans="7:8">
+      <c r="G108" s="9"/>
+      <c r="H108" s="15"/>
+    </row>
+    <row r="109" spans="7:8">
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+    </row>
+    <row r="110" spans="7:8">
+      <c r="G110" s="9"/>
+      <c r="H110" s="15"/>
+    </row>
+    <row r="111" spans="7:8">
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+    </row>
+    <row r="112" spans="7:8">
+      <c r="G112" s="9"/>
+      <c r="H112" s="15"/>
+    </row>
+    <row r="113" spans="7:8">
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+    </row>
+    <row r="114" spans="7:8">
+      <c r="G114" s="9"/>
+      <c r="H114" s="15"/>
+    </row>
+    <row r="115" spans="7:8">
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+    </row>
+    <row r="116" spans="7:8">
+      <c r="G116" s="9"/>
+      <c r="H116" s="15"/>
+    </row>
+    <row r="117" spans="7:8">
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+    </row>
+    <row r="118" spans="7:8">
+      <c r="G118" s="9"/>
+      <c r="H118" s="15"/>
+    </row>
+    <row r="119" spans="7:8">
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+    </row>
+    <row r="120" spans="7:8">
+      <c r="G120" s="9"/>
+      <c r="H120" s="15"/>
+    </row>
+    <row r="121" spans="7:8">
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+    </row>
+    <row r="122" spans="7:8">
+      <c r="G122" s="9"/>
+      <c r="H122" s="15"/>
+    </row>
+    <row r="123" spans="7:8">
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+    </row>
+    <row r="124" spans="7:8">
+      <c r="G124" s="9"/>
+      <c r="H124" s="15"/>
+    </row>
+    <row r="125" spans="7:8">
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+    </row>
+    <row r="126" spans="7:8">
+      <c r="G126" s="9"/>
+      <c r="H126" s="15"/>
+    </row>
+    <row r="127" spans="7:8">
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+    </row>
+    <row r="128" spans="7:8">
+      <c r="G128" s="9"/>
+      <c r="H128" s="15"/>
+    </row>
+    <row r="129" spans="7:8">
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+    </row>
+    <row r="130" spans="7:8">
+      <c r="G130" s="9"/>
+      <c r="H130" s="15"/>
+    </row>
+    <row r="131" spans="7:8">
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+    </row>
+    <row r="132" spans="7:8">
+      <c r="G132" s="9"/>
+      <c r="H132" s="15"/>
+    </row>
+    <row r="133" spans="7:8">
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+    </row>
+    <row r="134" spans="7:8">
+      <c r="G134" s="9"/>
+      <c r="H134" s="15"/>
+    </row>
+    <row r="135" spans="7:8">
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+    </row>
+    <row r="136" spans="7:8">
+      <c r="G136" s="9"/>
+      <c r="H136" s="15"/>
+    </row>
+    <row r="137" spans="7:8">
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+    </row>
+    <row r="138" spans="7:8">
+      <c r="G138" s="9"/>
+      <c r="H138" s="15"/>
+    </row>
+    <row r="139" spans="7:8">
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+    </row>
+    <row r="140" spans="7:8">
+      <c r="G140" s="9"/>
+      <c r="H140" s="15"/>
+    </row>
+    <row r="141" spans="7:8">
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+    </row>
+    <row r="142" spans="7:8">
+      <c r="G142" s="9"/>
+      <c r="H142" s="15"/>
+    </row>
+    <row r="143" spans="7:8">
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+    </row>
+    <row r="144" spans="7:8">
+      <c r="G144" s="9"/>
+      <c r="H144" s="15"/>
+    </row>
+    <row r="145" spans="7:8">
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
+    </row>
+    <row r="146" spans="7:8">
+      <c r="G146" s="9"/>
+      <c r="H146" s="15"/>
+    </row>
+    <row r="147" spans="7:8">
+      <c r="G147" s="9"/>
+      <c r="H147" s="9"/>
+    </row>
+    <row r="148" spans="7:8">
+      <c r="G148" s="9"/>
+      <c r="H148" s="15"/>
+    </row>
+    <row r="149" spans="7:8">
+      <c r="G149" s="9"/>
+      <c r="H149" s="9"/>
+    </row>
+    <row r="150" spans="7:8">
+      <c r="G150" s="9"/>
+      <c r="H150" s="15"/>
+    </row>
+    <row r="151" spans="7:8">
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
+    </row>
+    <row r="152" spans="7:8">
+      <c r="G152" s="9"/>
+      <c r="H152" s="15"/>
+    </row>
+    <row r="153" spans="7:8">
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
+    </row>
+    <row r="154" spans="7:8">
+      <c r="G154" s="9"/>
+      <c r="H154" s="15"/>
+    </row>
+    <row r="155" spans="7:8">
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
+    </row>
+    <row r="156" spans="7:8">
+      <c r="G156" s="9"/>
+      <c r="H156" s="15"/>
+    </row>
+    <row r="157" spans="7:8">
+      <c r="G157" s="9"/>
+      <c r="H157" s="9"/>
+    </row>
+    <row r="158" spans="7:8">
+      <c r="G158" s="9"/>
+      <c r="H158" s="15"/>
+    </row>
+    <row r="159" spans="7:8">
+      <c r="G159" s="9"/>
+      <c r="H159" s="9"/>
+    </row>
+    <row r="160" spans="7:8">
+      <c r="G160" s="9"/>
+      <c r="H160" s="15"/>
+    </row>
+    <row r="161" spans="7:8">
+      <c r="G161" s="9"/>
+      <c r="H161" s="9"/>
+    </row>
+    <row r="162" spans="7:8">
+      <c r="G162" s="9"/>
+      <c r="H162" s="15"/>
+    </row>
+    <row r="163" spans="7:8">
+      <c r="G163" s="9"/>
+      <c r="H163" s="9"/>
+    </row>
+    <row r="164" spans="7:8">
+      <c r="G164" s="9"/>
+      <c r="H164" s="15"/>
+    </row>
+    <row r="165" spans="7:8">
+      <c r="G165" s="9"/>
+      <c r="H165" s="9"/>
+    </row>
+    <row r="166" spans="7:8">
+      <c r="G166" s="9"/>
+      <c r="H166" s="15"/>
+    </row>
+    <row r="167" spans="7:8">
+      <c r="G167" s="9"/>
+      <c r="H167" s="9"/>
+    </row>
+    <row r="168" spans="7:8">
+      <c r="G168" s="9"/>
+      <c r="H168" s="15"/>
+    </row>
+    <row r="169" spans="7:8">
+      <c r="G169" s="9"/>
+      <c r="H169" s="9"/>
+    </row>
+    <row r="170" spans="7:8">
+      <c r="G170" s="9"/>
+      <c r="H170" s="15"/>
+    </row>
+    <row r="171" spans="7:8">
+      <c r="G171" s="9"/>
+      <c r="H171" s="9"/>
+    </row>
+    <row r="172" spans="7:8">
+      <c r="G172" s="9"/>
+      <c r="H172" s="15"/>
+    </row>
+    <row r="173" spans="7:8">
+      <c r="G173" s="9"/>
+      <c r="H173" s="9"/>
+    </row>
+    <row r="174" spans="7:8">
+      <c r="G174" s="9"/>
+      <c r="H174" s="15"/>
+    </row>
+    <row r="175" spans="7:8">
+      <c r="G175" s="9"/>
+      <c r="H175" s="9"/>
+    </row>
+    <row r="176" spans="7:8">
+      <c r="G176" s="9"/>
+      <c r="H176" s="15"/>
+    </row>
+    <row r="177" spans="7:8">
+      <c r="G177" s="9"/>
+      <c r="H177" s="9"/>
+    </row>
+    <row r="178" spans="7:8">
+      <c r="G178" s="9"/>
+      <c r="H178" s="15"/>
+    </row>
+    <row r="179" spans="7:8">
+      <c r="G179" s="9"/>
+      <c r="H179" s="9"/>
+    </row>
+    <row r="180" spans="7:8">
+      <c r="G180" s="9"/>
+      <c r="H180" s="15"/>
+    </row>
+    <row r="181" spans="7:8">
+      <c r="G181" s="9"/>
+      <c r="H181" s="9"/>
+    </row>
+    <row r="182" spans="7:8">
+      <c r="G182" s="9"/>
+      <c r="H182" s="15"/>
+    </row>
+    <row r="183" spans="7:8">
+      <c r="G183" s="9"/>
+      <c r="H183" s="9"/>
+    </row>
+    <row r="184" spans="7:8">
+      <c r="G184" s="9"/>
+      <c r="H184" s="15"/>
+    </row>
+    <row r="185" spans="7:8">
+      <c r="G185" s="9"/>
+      <c r="H185" s="9"/>
+    </row>
+    <row r="186" spans="7:8">
+      <c r="G186" s="9"/>
+      <c r="H186" s="15"/>
+    </row>
+    <row r="187" spans="7:8">
+      <c r="G187" s="9"/>
+      <c r="H187" s="9"/>
+    </row>
+    <row r="188" spans="7:8">
+      <c r="G188" s="9"/>
+      <c r="H188" s="15"/>
+    </row>
+    <row r="189" spans="7:8">
+      <c r="G189" s="9"/>
+      <c r="H189" s="9"/>
+    </row>
+    <row r="190" spans="7:8">
+      <c r="G190" s="9"/>
+      <c r="H190" s="15"/>
+    </row>
+    <row r="191" spans="7:8">
+      <c r="G191" s="9"/>
+      <c r="H191" s="9"/>
+    </row>
+    <row r="192" spans="7:8">
+      <c r="G192" s="9"/>
+      <c r="H192" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sigrity команды.xlsx
+++ b/sigrity команды.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\пособие\tcl\sigrity-rus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\пособие\sigrity-rus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D963DE-8800-4036-BEAF-15F4855625C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D69FD66-63FB-463D-B6A1-542E0FA18584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Список команд" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="255">
   <si>
     <t>Цепи</t>
   </si>
@@ -563,12 +563,6 @@
     <t xml:space="preserve">Создать 30 элементов [1..30] с моделью {C0402T10-C1005X7R1H104K050BB_CB} </t>
   </si>
   <si>
-    <t>sigrity::link {10uf02} {1} {Node87452::GND_DIGITAL} {!}</t>
-  </si>
-  <si>
-    <t>Соединить [1] вывод элемента [10uf02] с выводом на плате [Node87452::GND_DIGITAL]</t>
-  </si>
-  <si>
     <t>sigrity::unlink {1U03} -all {!}</t>
   </si>
   <si>
@@ -792,17 +786,43 @@
   </si>
   <si>
     <t>Изменение назания компонента с [NewExcitationCkt2] на [5v-X11-sim]</t>
+  </si>
+  <si>
+    <t>sigrity::link {zakorotka_43} {1} {Node17862!!6::VCC_3V3} {!}</t>
+  </si>
+  <si>
+    <t>Соединить [1] вывод элемента [zakorotka_43] с выводом на плате [Node17862!!6::VCC_3V3]</t>
+  </si>
+  <si>
+    <t>sigrity::link {zakorotka_44} {1} {Node16882!!9::NC_SWMV9} {!}</t>
+  </si>
+  <si>
+    <t>sigrity::add circuit {short_} -def {Zakorotka} -start 1 -end 60 {!}</t>
+  </si>
+  <si>
+    <t>sigrity::update net Polarity -auto {D_M_VE} {D_P_VE} {!}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">назначить полярность цепям {D_M_VE} и  {D_P_VE} </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -954,42 +974,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1207,18 +1225,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D1:G1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="8.69140625" customWidth="1"/>
-    <col min="4" max="4" width="84.61328125" customWidth="1"/>
-    <col min="5" max="5" width="85.69140625" customWidth="1"/>
-    <col min="6" max="6" width="57.84375" customWidth="1"/>
-    <col min="7" max="7" width="83.15234375" customWidth="1"/>
-    <col min="8" max="26" width="8.69140625" customWidth="1"/>
+    <col min="1" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="84.59765625" customWidth="1"/>
+    <col min="5" max="5" width="85.6640625" customWidth="1"/>
+    <col min="6" max="6" width="57.86328125" customWidth="1"/>
+    <col min="7" max="7" width="83.1328125" customWidth="1"/>
+    <col min="8" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:7" ht="14.25" customHeight="1"/>
@@ -1307,10 +1325,10 @@
       </c>
     </row>
     <row r="14" spans="4:7" ht="14.25" customHeight="1">
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="10" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1377,13 +1395,17 @@
       <c r="D22" t="s">
         <v>164</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="23" spans="4:6" ht="14.25" customHeight="1">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="D23" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="24" spans="4:6" ht="14.25" customHeight="1">
       <c r="D24" s="2"/>
@@ -1412,18 +1434,18 @@
       </c>
     </row>
     <row r="29" spans="4:6" ht="14.25" customHeight="1">
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30" spans="4:6" ht="14.25" customHeight="1">
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="8" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1453,7 +1475,7 @@
       </c>
     </row>
     <row r="38" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -1461,7 +1483,7 @@
       </c>
     </row>
     <row r="39" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="10" t="s">
         <v>48</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -1478,18 +1500,18 @@
     </row>
     <row r="41" spans="4:5" ht="14.25" customHeight="1">
       <c r="D41" t="s">
-        <v>245</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>246</v>
+        <v>243</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="4:5" ht="14.25" customHeight="1">
       <c r="D42" t="s">
-        <v>247</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>248</v>
+        <v>245</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="4:5" ht="14.25" customHeight="1"/>
@@ -1554,10 +1576,10 @@
     </row>
     <row r="70" spans="4:5" ht="14.25" customHeight="1"/>
     <row r="71" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1626,70 +1648,70 @@
       </c>
     </row>
     <row r="80" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E80" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="81" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="82" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E82" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="83" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="84" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D84" s="9" t="s">
+      <c r="D84" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E84" s="9" t="s">
+      <c r="E84" s="8" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="85" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D85" s="9" t="s">
+      <c r="D85" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E85" s="17" t="s">
+      <c r="E85" s="14" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="86" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D86" s="9" t="s">
+      <c r="D86" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E86" s="17"/>
+      <c r="E86" s="14"/>
     </row>
     <row r="87" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D87" s="9" t="s">
+      <c r="D87" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E87" s="17"/>
+      <c r="E87" s="14"/>
     </row>
     <row r="88" spans="4:5" ht="14.25" customHeight="1"/>
     <row r="89" spans="4:5" ht="14.25" customHeight="1"/>
     <row r="90" spans="4:5" ht="14.25" customHeight="1"/>
     <row r="91" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="7" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1697,7 +1719,7 @@
       <c r="D92" t="s">
         <v>135</v>
       </c>
-      <c r="E92" s="9" t="s">
+      <c r="E92" s="8" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1705,7 +1727,7 @@
       <c r="D93" t="s">
         <v>136</v>
       </c>
-      <c r="E93" s="9" t="s">
+      <c r="E93" s="8" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1775,18 +1797,18 @@
       </c>
     </row>
     <row r="126" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D126" s="4" t="s">
+      <c r="D126" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E126" s="4" t="s">
+      <c r="E126" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="127" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D127" s="5" t="s">
+      <c r="D127" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E127" s="4" t="s">
+      <c r="E127" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1795,7 +1817,7 @@
     <row r="130" spans="4:7" ht="14.25" customHeight="1"/>
     <row r="131" spans="4:7" ht="14.25" customHeight="1"/>
     <row r="132" spans="4:7" ht="14.25" customHeight="1">
-      <c r="D132" s="8" t="s">
+      <c r="D132" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1808,10 +1830,10 @@
       </c>
     </row>
     <row r="134" spans="4:7" ht="14.25" customHeight="1">
-      <c r="D134" s="9" t="s">
+      <c r="D134" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E134" s="9" t="s">
+      <c r="E134" s="8" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1825,42 +1847,49 @@
     </row>
     <row r="136" spans="4:7" ht="14.25" customHeight="1">
       <c r="D136" t="s">
-        <v>174</v>
+        <v>249</v>
       </c>
       <c r="E136" t="s">
-        <v>175</v>
+        <v>250</v>
+      </c>
+      <c r="F136" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="137" spans="4:7" ht="14.25" customHeight="1">
       <c r="D137" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E137" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="138" spans="4:7" ht="14.25" customHeight="1">
       <c r="D138" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E138" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="139" spans="4:7" ht="14.25" customHeight="1"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="139" spans="4:7" ht="14.25" customHeight="1">
+      <c r="D139" t="s">
+        <v>252</v>
+      </c>
+    </row>
     <row r="140" spans="4:7" ht="14.25" customHeight="1"/>
     <row r="141" spans="4:7" ht="14.25" customHeight="1"/>
     <row r="142" spans="4:7" ht="14.25" customHeight="1"/>
     <row r="143" spans="4:7" ht="14.25" customHeight="1">
-      <c r="D143" s="8" t="s">
+      <c r="D143" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="144" spans="4:7" ht="21.9" customHeight="1">
-      <c r="D144" s="9" t="s">
+    <row r="144" spans="4:7" ht="21.95" customHeight="1">
+      <c r="D144" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E144" s="9" t="s">
+      <c r="E144" s="8" t="s">
         <v>141</v>
       </c>
       <c r="F144" t="s">
@@ -1875,83 +1904,83 @@
     <row r="147" spans="4:5" ht="14.25" customHeight="1"/>
     <row r="148" spans="4:5" ht="14.25" customHeight="1"/>
     <row r="149" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D149" s="8" t="s">
+      <c r="D149" s="7" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="150" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D150" s="10" t="s">
+      <c r="D150" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="E150" s="10" t="s">
+      <c r="E150" s="9" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="151" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D151" s="10" t="s">
+      <c r="D151" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E151" s="10" t="s">
+      <c r="E151" s="9" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="152" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D152" s="10" t="s">
+      <c r="D152" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E152" s="10" t="s">
+      <c r="E152" s="9" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="153" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D153" s="10" t="s">
+      <c r="D153" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E153" s="10" t="s">
+      <c r="E153" s="9" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="154" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D154" s="10" t="s">
+      <c r="D154" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E154" s="10" t="s">
+      <c r="E154" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="155" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D155" s="18" t="s">
+      <c r="D155" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="E155" s="19" t="s">
+      <c r="E155" s="16" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="156" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D156" s="18"/>
-      <c r="E156" s="20"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="17"/>
     </row>
     <row r="157" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D157" s="14" t="s">
+      <c r="D157" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E157" s="10" t="s">
+      <c r="E157" s="9" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="158" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D158" s="14" t="s">
+      <c r="D158" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="E158" s="14" t="s">
+      <c r="E158" s="11" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="159" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D159" s="14" t="s">
+      <c r="D159" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="E159" s="14" t="s">
+      <c r="E159" s="11" t="s">
         <v>171</v>
       </c>
     </row>
@@ -1959,8 +1988,8 @@
     <row r="161" spans="4:5" ht="14.25" customHeight="1"/>
     <row r="162" spans="4:5" ht="14.25" customHeight="1"/>
     <row r="163" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D163" s="8" t="s">
-        <v>240</v>
+      <c r="D163" s="7" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="164" spans="4:5" ht="14.25" customHeight="1">
@@ -1975,18 +2004,18 @@
     <row r="166" spans="4:5" ht="14.25" customHeight="1"/>
     <row r="167" spans="4:5" ht="14.25" customHeight="1">
       <c r="D167" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E167" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="168" spans="4:5" ht="14.25" customHeight="1">
       <c r="D168" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E168" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="169" spans="4:5" ht="14.25" customHeight="1">
@@ -2846,9 +2875,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="8.69140625" customWidth="1"/>
+    <col min="1" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -3870,70 +3899,70 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="95.15234375" customWidth="1"/>
-    <col min="4" max="4" width="66.84375" customWidth="1"/>
+    <col min="3" max="3" width="95.1328125" customWidth="1"/>
+    <col min="4" max="4" width="66.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4">
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3948,23 +3977,23 @@
       <selection activeCell="F14" sqref="F14:J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="4.61328125" customWidth="1"/>
-    <col min="3" max="5" width="9.23046875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="35.765625" customWidth="1"/>
-    <col min="7" max="7" width="16.07421875" customWidth="1"/>
-    <col min="9" max="9" width="29.23046875" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" customWidth="1"/>
+    <col min="3" max="5" width="9.19921875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="35.73046875" customWidth="1"/>
+    <col min="7" max="7" width="16.06640625" customWidth="1"/>
+    <col min="9" max="9" width="29.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="14" spans="5:9">
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>118</v>
       </c>
       <c r="H14" t="s">
@@ -3979,10 +4008,10 @@
       <c r="E15">
         <v>2</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="8" t="s">
         <v>119</v>
       </c>
       <c r="H15" t="s">
@@ -3997,10 +4026,10 @@
       <c r="E16">
         <v>3</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>120</v>
       </c>
       <c r="H16" t="s">
@@ -4015,10 +4044,10 @@
       <c r="E17">
         <v>4</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="8" t="s">
         <v>121</v>
       </c>
       <c r="H17" t="s">
@@ -4033,10 +4062,10 @@
       <c r="E18">
         <v>5</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="8" t="s">
         <v>122</v>
       </c>
       <c r="H18" t="s">
@@ -4051,10 +4080,10 @@
       <c r="E19">
         <v>6</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>123</v>
       </c>
       <c r="H19" t="s">
@@ -4069,10 +4098,10 @@
       <c r="E20">
         <v>7</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="8" t="s">
         <v>124</v>
       </c>
       <c r="H20" t="s">
@@ -4087,10 +4116,10 @@
       <c r="E21">
         <v>8</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="8" t="s">
         <v>125</v>
       </c>
       <c r="H21" t="s">
@@ -4105,10 +4134,10 @@
       <c r="E22">
         <v>9</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="8" t="s">
         <v>127</v>
       </c>
       <c r="H22" t="s">
@@ -4123,10 +4152,10 @@
       <c r="E23">
         <v>10</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="8" t="s">
         <v>126</v>
       </c>
       <c r="H23" t="s">
@@ -4141,10 +4170,10 @@
       <c r="E24">
         <v>11</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="8" t="s">
         <v>128</v>
       </c>
       <c r="H24" t="s">
@@ -4159,10 +4188,10 @@
       <c r="E25">
         <v>12</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="8" t="s">
         <v>129</v>
       </c>
       <c r="H25" t="s">
@@ -4177,10 +4206,10 @@
       <c r="E26">
         <v>13</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="8" t="s">
         <v>130</v>
       </c>
       <c r="H26" t="s">
@@ -4195,10 +4224,10 @@
       <c r="E27">
         <v>14</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="8" t="s">
         <v>131</v>
       </c>
       <c r="H27" t="s">
@@ -4213,10 +4242,10 @@
       <c r="E28">
         <v>15</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="8" t="s">
         <v>132</v>
       </c>
       <c r="H28" t="s">
@@ -4231,10 +4260,10 @@
       <c r="E29">
         <v>16</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="8" t="s">
         <v>133</v>
       </c>
       <c r="H29" t="s">
@@ -4249,7 +4278,7 @@
       <c r="E30">
         <v>17</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H30" t="s">
@@ -4264,7 +4293,7 @@
       <c r="E31">
         <v>18</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H31" t="s">
@@ -4279,7 +4308,7 @@
       <c r="E32">
         <v>19</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H32" t="s">
@@ -4294,7 +4323,7 @@
       <c r="E33">
         <v>20</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H33" t="s">
@@ -4309,7 +4338,7 @@
       <c r="E34">
         <v>21</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H34" t="s">
@@ -4324,7 +4353,7 @@
       <c r="E35">
         <v>22</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H35" t="s">
@@ -4339,7 +4368,7 @@
       <c r="E36">
         <v>23</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H36" t="s">
@@ -4354,7 +4383,7 @@
       <c r="E37">
         <v>24</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H37" t="s">
@@ -4369,7 +4398,7 @@
       <c r="E38">
         <v>25</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H38" t="s">
@@ -4384,7 +4413,7 @@
       <c r="E39">
         <v>26</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H39" t="s">
@@ -4399,7 +4428,7 @@
       <c r="E40">
         <v>27</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H40" t="s">
@@ -4411,7 +4440,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4424,27 +4453,27 @@
       <selection activeCell="G17" sqref="G17:J76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="7" max="7" width="54.69140625" customWidth="1"/>
-    <col min="8" max="8" width="26.921875" customWidth="1"/>
-    <col min="10" max="10" width="41.53515625" customWidth="1"/>
+    <col min="7" max="7" width="54.6640625" customWidth="1"/>
+    <col min="8" max="8" width="26.9296875" customWidth="1"/>
+    <col min="10" max="10" width="41.53125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="16" spans="7:7">
       <c r="G16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="7:10">
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>180</v>
-      </c>
       <c r="I17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J17" t="str">
         <f>_xlfn.CONCAT(G17:I17)</f>
@@ -4452,14 +4481,14 @@
       </c>
     </row>
     <row r="18" spans="7:10">
-      <c r="G18" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>181</v>
+      <c r="G18" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="I18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J18" t="str">
         <f>_xlfn.CONCAT(G18:I18)</f>
@@ -4467,14 +4496,14 @@
       </c>
     </row>
     <row r="19" spans="7:10">
-      <c r="G19" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>182</v>
+      <c r="G19" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="I19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" ref="J19:J76" si="0">_xlfn.CONCAT(G19:I19)</f>
@@ -4482,854 +4511,854 @@
       </c>
     </row>
     <row r="20" spans="7:10">
-      <c r="G20" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H20" s="15" t="s">
+      <c r="G20" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="I20" t="s">
+        <v>177</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_04} -all {!}</v>
+      </c>
+    </row>
+    <row r="21" spans="7:10">
+      <c r="G21" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="I21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_05} -all {!}</v>
+      </c>
+    </row>
+    <row r="22" spans="7:10">
+      <c r="G22" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="I20" t="s">
-        <v>179</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_04} -all {!}</v>
-      </c>
-    </row>
-    <row r="21" spans="7:10">
-      <c r="G21" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H21" s="9" t="s">
+      <c r="I22" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_06} -all {!}</v>
+      </c>
+    </row>
+    <row r="23" spans="7:10">
+      <c r="G23" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="I21" t="s">
-        <v>179</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_05} -all {!}</v>
-      </c>
-    </row>
-    <row r="22" spans="7:10">
-      <c r="G22" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H22" s="15" t="s">
+      <c r="I23" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_07} -all {!}</v>
+      </c>
+    </row>
+    <row r="24" spans="7:10">
+      <c r="G24" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H24" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="I22" t="s">
-        <v>179</v>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_06} -all {!}</v>
-      </c>
-    </row>
-    <row r="23" spans="7:10">
-      <c r="G23" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H23" s="9" t="s">
+      <c r="I24" t="s">
+        <v>177</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_08} -all {!}</v>
+      </c>
+    </row>
+    <row r="25" spans="7:10">
+      <c r="G25" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="I23" t="s">
-        <v>179</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_07} -all {!}</v>
-      </c>
-    </row>
-    <row r="24" spans="7:10">
-      <c r="G24" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H24" s="15" t="s">
+      <c r="I25" t="s">
+        <v>177</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_09} -all {!}</v>
+      </c>
+    </row>
+    <row r="26" spans="7:10">
+      <c r="G26" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H26" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="I24" t="s">
-        <v>179</v>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_08} -all {!}</v>
-      </c>
-    </row>
-    <row r="25" spans="7:10">
-      <c r="G25" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H25" s="9" t="s">
+      <c r="I26" t="s">
+        <v>177</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_10} -all {!}</v>
+      </c>
+    </row>
+    <row r="27" spans="7:10">
+      <c r="G27" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="I25" t="s">
-        <v>179</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_09} -all {!}</v>
-      </c>
-    </row>
-    <row r="26" spans="7:10">
-      <c r="G26" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H26" s="15" t="s">
+      <c r="I27" t="s">
+        <v>177</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_11} -all {!}</v>
+      </c>
+    </row>
+    <row r="28" spans="7:10">
+      <c r="G28" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H28" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="I26" t="s">
-        <v>179</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_10} -all {!}</v>
-      </c>
-    </row>
-    <row r="27" spans="7:10">
-      <c r="G27" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H27" s="9" t="s">
+      <c r="I28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_12} -all {!}</v>
+      </c>
+    </row>
+    <row r="29" spans="7:10">
+      <c r="G29" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H29" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="I27" t="s">
-        <v>179</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_11} -all {!}</v>
-      </c>
-    </row>
-    <row r="28" spans="7:10">
-      <c r="G28" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H28" s="15" t="s">
+      <c r="I29" t="s">
+        <v>177</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_13} -all {!}</v>
+      </c>
+    </row>
+    <row r="30" spans="7:10">
+      <c r="G30" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H30" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="I28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_12} -all {!}</v>
-      </c>
-    </row>
-    <row r="29" spans="7:10">
-      <c r="G29" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H29" s="9" t="s">
+      <c r="I30" t="s">
+        <v>177</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_14} -all {!}</v>
+      </c>
+    </row>
+    <row r="31" spans="7:10">
+      <c r="G31" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H31" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="I29" t="s">
-        <v>179</v>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_13} -all {!}</v>
-      </c>
-    </row>
-    <row r="30" spans="7:10">
-      <c r="G30" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H30" s="15" t="s">
+      <c r="I31" t="s">
+        <v>177</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_15} -all {!}</v>
+      </c>
+    </row>
+    <row r="32" spans="7:10">
+      <c r="G32" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H32" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="I30" t="s">
-        <v>179</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_14} -all {!}</v>
-      </c>
-    </row>
-    <row r="31" spans="7:10">
-      <c r="G31" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H31" s="9" t="s">
+      <c r="I32" t="s">
+        <v>177</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_16} -all {!}</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10">
+      <c r="G33" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H33" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="I31" t="s">
-        <v>179</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_15} -all {!}</v>
-      </c>
-    </row>
-    <row r="32" spans="7:10">
-      <c r="G32" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H32" s="15" t="s">
+      <c r="I33" t="s">
+        <v>177</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_17} -all {!}</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10">
+      <c r="G34" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H34" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="I32" t="s">
-        <v>179</v>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_16} -all {!}</v>
-      </c>
-    </row>
-    <row r="33" spans="7:10">
-      <c r="G33" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H33" s="9" t="s">
+      <c r="I34" t="s">
+        <v>177</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_18} -all {!}</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10">
+      <c r="G35" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H35" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="I33" t="s">
-        <v>179</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_17} -all {!}</v>
-      </c>
-    </row>
-    <row r="34" spans="7:10">
-      <c r="G34" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H34" s="15" t="s">
+      <c r="I35" t="s">
+        <v>177</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_19} -all {!}</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10">
+      <c r="G36" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H36" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="I34" t="s">
-        <v>179</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_18} -all {!}</v>
-      </c>
-    </row>
-    <row r="35" spans="7:10">
-      <c r="G35" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H35" s="9" t="s">
+      <c r="I36" t="s">
+        <v>177</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_20} -all {!}</v>
+      </c>
+    </row>
+    <row r="37" spans="7:10">
+      <c r="G37" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H37" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="I35" t="s">
-        <v>179</v>
-      </c>
-      <c r="J35" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_19} -all {!}</v>
-      </c>
-    </row>
-    <row r="36" spans="7:10">
-      <c r="G36" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H36" s="15" t="s">
+      <c r="I37" t="s">
+        <v>177</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_21} -all {!}</v>
+      </c>
+    </row>
+    <row r="38" spans="7:10">
+      <c r="G38" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H38" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="I36" t="s">
-        <v>179</v>
-      </c>
-      <c r="J36" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_20} -all {!}</v>
-      </c>
-    </row>
-    <row r="37" spans="7:10">
-      <c r="G37" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H37" s="9" t="s">
+      <c r="I38" t="s">
+        <v>177</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_22} -all {!}</v>
+      </c>
+    </row>
+    <row r="39" spans="7:10">
+      <c r="G39" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H39" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="I37" t="s">
-        <v>179</v>
-      </c>
-      <c r="J37" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_21} -all {!}</v>
-      </c>
-    </row>
-    <row r="38" spans="7:10">
-      <c r="G38" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H38" s="15" t="s">
+      <c r="I39" t="s">
+        <v>177</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_23} -all {!}</v>
+      </c>
+    </row>
+    <row r="40" spans="7:10">
+      <c r="G40" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H40" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="I38" t="s">
-        <v>179</v>
-      </c>
-      <c r="J38" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_22} -all {!}</v>
-      </c>
-    </row>
-    <row r="39" spans="7:10">
-      <c r="G39" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H39" s="9" t="s">
+      <c r="I40" t="s">
+        <v>177</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_24} -all {!}</v>
+      </c>
+    </row>
+    <row r="41" spans="7:10">
+      <c r="G41" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H41" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="I39" t="s">
-        <v>179</v>
-      </c>
-      <c r="J39" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_23} -all {!}</v>
-      </c>
-    </row>
-    <row r="40" spans="7:10">
-      <c r="G40" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H40" s="15" t="s">
+      <c r="I41" t="s">
+        <v>177</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_25} -all {!}</v>
+      </c>
+    </row>
+    <row r="42" spans="7:10">
+      <c r="G42" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H42" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="I40" t="s">
-        <v>179</v>
-      </c>
-      <c r="J40" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_24} -all {!}</v>
-      </c>
-    </row>
-    <row r="41" spans="7:10">
-      <c r="G41" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H41" s="9" t="s">
+      <c r="I42" t="s">
+        <v>177</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_26} -all {!}</v>
+      </c>
+    </row>
+    <row r="43" spans="7:10">
+      <c r="G43" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H43" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="I41" t="s">
-        <v>179</v>
-      </c>
-      <c r="J41" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_25} -all {!}</v>
-      </c>
-    </row>
-    <row r="42" spans="7:10">
-      <c r="G42" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H42" s="15" t="s">
+      <c r="I43" t="s">
+        <v>177</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_27} -all {!}</v>
+      </c>
+    </row>
+    <row r="44" spans="7:10">
+      <c r="G44" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H44" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="I42" t="s">
-        <v>179</v>
-      </c>
-      <c r="J42" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_26} -all {!}</v>
-      </c>
-    </row>
-    <row r="43" spans="7:10">
-      <c r="G43" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H43" s="9" t="s">
+      <c r="I44" t="s">
+        <v>177</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_28} -all {!}</v>
+      </c>
+    </row>
+    <row r="45" spans="7:10">
+      <c r="G45" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H45" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="I43" t="s">
-        <v>179</v>
-      </c>
-      <c r="J43" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_27} -all {!}</v>
-      </c>
-    </row>
-    <row r="44" spans="7:10">
-      <c r="G44" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H44" s="15" t="s">
+      <c r="I45" t="s">
+        <v>177</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_29} -all {!}</v>
+      </c>
+    </row>
+    <row r="46" spans="7:10">
+      <c r="G46" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H46" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="I44" t="s">
-        <v>179</v>
-      </c>
-      <c r="J44" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_28} -all {!}</v>
-      </c>
-    </row>
-    <row r="45" spans="7:10">
-      <c r="G45" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H45" s="9" t="s">
+      <c r="I46" t="s">
+        <v>177</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_30} -all {!}</v>
+      </c>
+    </row>
+    <row r="47" spans="7:10">
+      <c r="G47" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H47" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="I45" t="s">
-        <v>179</v>
-      </c>
-      <c r="J45" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_29} -all {!}</v>
-      </c>
-    </row>
-    <row r="46" spans="7:10">
-      <c r="G46" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H46" s="15" t="s">
+      <c r="I47" t="s">
+        <v>177</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_31} -all {!}</v>
+      </c>
+    </row>
+    <row r="48" spans="7:10">
+      <c r="G48" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H48" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="I46" t="s">
-        <v>179</v>
-      </c>
-      <c r="J46" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_30} -all {!}</v>
-      </c>
-    </row>
-    <row r="47" spans="7:10">
-      <c r="G47" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H47" s="9" t="s">
+      <c r="I48" t="s">
+        <v>177</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_32} -all {!}</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10">
+      <c r="G49" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H49" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="I47" t="s">
-        <v>179</v>
-      </c>
-      <c r="J47" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_31} -all {!}</v>
-      </c>
-    </row>
-    <row r="48" spans="7:10">
-      <c r="G48" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H48" s="15" t="s">
+      <c r="I49" t="s">
+        <v>177</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_33} -all {!}</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10">
+      <c r="G50" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H50" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="I48" t="s">
-        <v>179</v>
-      </c>
-      <c r="J48" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_32} -all {!}</v>
-      </c>
-    </row>
-    <row r="49" spans="7:10">
-      <c r="G49" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H49" s="9" t="s">
+      <c r="I50" t="s">
+        <v>177</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_34} -all {!}</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10">
+      <c r="G51" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H51" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="I49" t="s">
-        <v>179</v>
-      </c>
-      <c r="J49" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_33} -all {!}</v>
-      </c>
-    </row>
-    <row r="50" spans="7:10">
-      <c r="G50" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H50" s="15" t="s">
+      <c r="I51" t="s">
+        <v>177</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_35} -all {!}</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10">
+      <c r="G52" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H52" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="I50" t="s">
-        <v>179</v>
-      </c>
-      <c r="J50" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_34} -all {!}</v>
-      </c>
-    </row>
-    <row r="51" spans="7:10">
-      <c r="G51" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H51" s="9" t="s">
+      <c r="I52" t="s">
+        <v>177</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_36} -all {!}</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10">
+      <c r="G53" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H53" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="I51" t="s">
-        <v>179</v>
-      </c>
-      <c r="J51" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_35} -all {!}</v>
-      </c>
-    </row>
-    <row r="52" spans="7:10">
-      <c r="G52" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H52" s="15" t="s">
+      <c r="I53" t="s">
+        <v>177</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_37} -all {!}</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10">
+      <c r="G54" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H54" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="I52" t="s">
-        <v>179</v>
-      </c>
-      <c r="J52" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_36} -all {!}</v>
-      </c>
-    </row>
-    <row r="53" spans="7:10">
-      <c r="G53" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H53" s="9" t="s">
+      <c r="I54" t="s">
+        <v>177</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_38} -all {!}</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10">
+      <c r="G55" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H55" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="I53" t="s">
-        <v>179</v>
-      </c>
-      <c r="J53" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_37} -all {!}</v>
-      </c>
-    </row>
-    <row r="54" spans="7:10">
-      <c r="G54" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H54" s="15" t="s">
+      <c r="I55" t="s">
+        <v>177</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_39} -all {!}</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10">
+      <c r="G56" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H56" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="I54" t="s">
-        <v>179</v>
-      </c>
-      <c r="J54" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_38} -all {!}</v>
-      </c>
-    </row>
-    <row r="55" spans="7:10">
-      <c r="G55" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H55" s="9" t="s">
+      <c r="I56" t="s">
+        <v>177</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_40} -all {!}</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10">
+      <c r="G57" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H57" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="I55" t="s">
-        <v>179</v>
-      </c>
-      <c r="J55" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_39} -all {!}</v>
-      </c>
-    </row>
-    <row r="56" spans="7:10">
-      <c r="G56" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H56" s="15" t="s">
+      <c r="I57" t="s">
+        <v>177</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_41} -all {!}</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10">
+      <c r="G58" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H58" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="I56" t="s">
-        <v>179</v>
-      </c>
-      <c r="J56" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_40} -all {!}</v>
-      </c>
-    </row>
-    <row r="57" spans="7:10">
-      <c r="G57" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H57" s="9" t="s">
+      <c r="I58" t="s">
+        <v>177</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_42} -all {!}</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10">
+      <c r="G59" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H59" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="I57" t="s">
-        <v>179</v>
-      </c>
-      <c r="J57" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_41} -all {!}</v>
-      </c>
-    </row>
-    <row r="58" spans="7:10">
-      <c r="G58" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H58" s="15" t="s">
+      <c r="I59" t="s">
+        <v>177</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_43} -all {!}</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10">
+      <c r="G60" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H60" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="I58" t="s">
-        <v>179</v>
-      </c>
-      <c r="J58" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_42} -all {!}</v>
-      </c>
-    </row>
-    <row r="59" spans="7:10">
-      <c r="G59" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H59" s="9" t="s">
+      <c r="I60" t="s">
+        <v>177</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_44} -all {!}</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10">
+      <c r="G61" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H61" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="I59" t="s">
-        <v>179</v>
-      </c>
-      <c r="J59" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_43} -all {!}</v>
-      </c>
-    </row>
-    <row r="60" spans="7:10">
-      <c r="G60" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H60" s="15" t="s">
+      <c r="I61" t="s">
+        <v>177</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_45} -all {!}</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10">
+      <c r="G62" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H62" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="I60" t="s">
-        <v>179</v>
-      </c>
-      <c r="J60" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_44} -all {!}</v>
-      </c>
-    </row>
-    <row r="61" spans="7:10">
-      <c r="G61" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H61" s="9" t="s">
+      <c r="I62" t="s">
+        <v>177</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_46} -all {!}</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10">
+      <c r="G63" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H63" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="I61" t="s">
-        <v>179</v>
-      </c>
-      <c r="J61" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_45} -all {!}</v>
-      </c>
-    </row>
-    <row r="62" spans="7:10">
-      <c r="G62" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H62" s="15" t="s">
+      <c r="I63" t="s">
+        <v>177</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_47} -all {!}</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10">
+      <c r="G64" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H64" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="I62" t="s">
-        <v>179</v>
-      </c>
-      <c r="J62" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_46} -all {!}</v>
-      </c>
-    </row>
-    <row r="63" spans="7:10">
-      <c r="G63" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H63" s="9" t="s">
+      <c r="I64" t="s">
+        <v>177</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_48} -all {!}</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10">
+      <c r="G65" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H65" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="I63" t="s">
-        <v>179</v>
-      </c>
-      <c r="J63" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_47} -all {!}</v>
-      </c>
-    </row>
-    <row r="64" spans="7:10">
-      <c r="G64" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H64" s="15" t="s">
+      <c r="I65" t="s">
+        <v>177</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_49} -all {!}</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10">
+      <c r="G66" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H66" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="I64" t="s">
-        <v>179</v>
-      </c>
-      <c r="J64" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_48} -all {!}</v>
-      </c>
-    </row>
-    <row r="65" spans="7:10">
-      <c r="G65" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H65" s="9" t="s">
+      <c r="I66" t="s">
+        <v>177</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_50} -all {!}</v>
+      </c>
+    </row>
+    <row r="67" spans="7:10">
+      <c r="G67" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H67" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="I65" t="s">
-        <v>179</v>
-      </c>
-      <c r="J65" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_49} -all {!}</v>
-      </c>
-    </row>
-    <row r="66" spans="7:10">
-      <c r="G66" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H66" s="15" t="s">
+      <c r="I67" t="s">
+        <v>177</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_51} -all {!}</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10">
+      <c r="G68" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H68" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="I66" t="s">
-        <v>179</v>
-      </c>
-      <c r="J66" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_50} -all {!}</v>
-      </c>
-    </row>
-    <row r="67" spans="7:10">
-      <c r="G67" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H67" s="9" t="s">
+      <c r="I68" t="s">
+        <v>177</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_52} -all {!}</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10">
+      <c r="G69" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H69" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="I67" t="s">
-        <v>179</v>
-      </c>
-      <c r="J67" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_51} -all {!}</v>
-      </c>
-    </row>
-    <row r="68" spans="7:10">
-      <c r="G68" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H68" s="15" t="s">
+      <c r="I69" t="s">
+        <v>177</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_53} -all {!}</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10">
+      <c r="G70" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H70" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="I68" t="s">
-        <v>179</v>
-      </c>
-      <c r="J68" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_52} -all {!}</v>
-      </c>
-    </row>
-    <row r="69" spans="7:10">
-      <c r="G69" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H69" s="9" t="s">
+      <c r="I70" t="s">
+        <v>177</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_54} -all {!}</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10">
+      <c r="G71" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H71" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="I69" t="s">
-        <v>179</v>
-      </c>
-      <c r="J69" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_53} -all {!}</v>
-      </c>
-    </row>
-    <row r="70" spans="7:10">
-      <c r="G70" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H70" s="15" t="s">
+      <c r="I71" t="s">
+        <v>177</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_55} -all {!}</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10">
+      <c r="G72" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H72" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="I70" t="s">
-        <v>179</v>
-      </c>
-      <c r="J70" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_54} -all {!}</v>
-      </c>
-    </row>
-    <row r="71" spans="7:10">
-      <c r="G71" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H71" s="9" t="s">
+      <c r="I72" t="s">
+        <v>177</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_56} -all {!}</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10">
+      <c r="G73" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H73" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="I71" t="s">
-        <v>179</v>
-      </c>
-      <c r="J71" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_55} -all {!}</v>
-      </c>
-    </row>
-    <row r="72" spans="7:10">
-      <c r="G72" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H72" s="15" t="s">
+      <c r="I73" t="s">
+        <v>177</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_57} -all {!}</v>
+      </c>
+    </row>
+    <row r="74" spans="7:10">
+      <c r="G74" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H74" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="I72" t="s">
-        <v>179</v>
-      </c>
-      <c r="J72" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_56} -all {!}</v>
-      </c>
-    </row>
-    <row r="73" spans="7:10">
-      <c r="G73" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H73" s="9" t="s">
+      <c r="I74" t="s">
+        <v>177</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_58} -all {!}</v>
+      </c>
+    </row>
+    <row r="75" spans="7:10">
+      <c r="G75" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H75" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="I73" t="s">
-        <v>179</v>
-      </c>
-      <c r="J73" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_57} -all {!}</v>
-      </c>
-    </row>
-    <row r="74" spans="7:10">
-      <c r="G74" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H74" s="15" t="s">
+      <c r="I75" t="s">
+        <v>177</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::unlink {zakorotka_59} -all {!}</v>
+      </c>
+    </row>
+    <row r="76" spans="7:10">
+      <c r="G76" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H76" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="I74" t="s">
-        <v>179</v>
-      </c>
-      <c r="J74" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_58} -all {!}</v>
-      </c>
-    </row>
-    <row r="75" spans="7:10">
-      <c r="G75" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="I75" t="s">
-        <v>179</v>
-      </c>
-      <c r="J75" t="str">
-        <f t="shared" si="0"/>
-        <v>sigrity::unlink {zakorotka_59} -all {!}</v>
-      </c>
-    </row>
-    <row r="76" spans="7:10">
-      <c r="G76" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H76" s="15" t="s">
-        <v>239</v>
-      </c>
       <c r="I76" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J76" t="str">
         <f t="shared" si="0"/>
@@ -5337,471 +5366,471 @@
       </c>
     </row>
     <row r="77" spans="7:10">
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
     </row>
     <row r="78" spans="7:10">
-      <c r="G78" s="9"/>
-      <c r="H78" s="15"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="12"/>
     </row>
     <row r="79" spans="7:10">
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
     </row>
     <row r="80" spans="7:10">
-      <c r="G80" s="9"/>
-      <c r="H80" s="15"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="12"/>
     </row>
     <row r="81" spans="7:8">
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
     </row>
     <row r="82" spans="7:8">
-      <c r="G82" s="9"/>
-      <c r="H82" s="15"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="12"/>
     </row>
     <row r="83" spans="7:8">
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
     </row>
     <row r="84" spans="7:8">
-      <c r="G84" s="9"/>
-      <c r="H84" s="15"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="12"/>
     </row>
     <row r="85" spans="7:8">
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
     </row>
     <row r="86" spans="7:8">
-      <c r="G86" s="9"/>
-      <c r="H86" s="15"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="12"/>
     </row>
     <row r="87" spans="7:8">
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
     </row>
     <row r="88" spans="7:8">
-      <c r="G88" s="9"/>
-      <c r="H88" s="15"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="12"/>
     </row>
     <row r="89" spans="7:8">
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
     </row>
     <row r="90" spans="7:8">
-      <c r="G90" s="9"/>
-      <c r="H90" s="15"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="12"/>
     </row>
     <row r="91" spans="7:8">
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
     </row>
     <row r="92" spans="7:8">
-      <c r="G92" s="9"/>
-      <c r="H92" s="15"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="12"/>
     </row>
     <row r="93" spans="7:8">
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
     </row>
     <row r="94" spans="7:8">
-      <c r="G94" s="9"/>
-      <c r="H94" s="15"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="12"/>
     </row>
     <row r="95" spans="7:8">
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
     </row>
     <row r="96" spans="7:8">
-      <c r="G96" s="9"/>
-      <c r="H96" s="15"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="12"/>
     </row>
     <row r="97" spans="7:8">
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
     </row>
     <row r="98" spans="7:8">
-      <c r="G98" s="9"/>
-      <c r="H98" s="15"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="12"/>
     </row>
     <row r="99" spans="7:8">
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
     </row>
     <row r="100" spans="7:8">
-      <c r="G100" s="9"/>
-      <c r="H100" s="15"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="12"/>
     </row>
     <row r="101" spans="7:8">
-      <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
     </row>
     <row r="102" spans="7:8">
-      <c r="G102" s="9"/>
-      <c r="H102" s="15"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="12"/>
     </row>
     <row r="103" spans="7:8">
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
     </row>
     <row r="104" spans="7:8">
-      <c r="G104" s="9"/>
-      <c r="H104" s="15"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="12"/>
     </row>
     <row r="105" spans="7:8">
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
     </row>
     <row r="106" spans="7:8">
-      <c r="G106" s="9"/>
-      <c r="H106" s="15"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="12"/>
     </row>
     <row r="107" spans="7:8">
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
     </row>
     <row r="108" spans="7:8">
-      <c r="G108" s="9"/>
-      <c r="H108" s="15"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="12"/>
     </row>
     <row r="109" spans="7:8">
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
     </row>
     <row r="110" spans="7:8">
-      <c r="G110" s="9"/>
-      <c r="H110" s="15"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="12"/>
     </row>
     <row r="111" spans="7:8">
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
     </row>
     <row r="112" spans="7:8">
-      <c r="G112" s="9"/>
-      <c r="H112" s="15"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="12"/>
     </row>
     <row r="113" spans="7:8">
-      <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
     </row>
     <row r="114" spans="7:8">
-      <c r="G114" s="9"/>
-      <c r="H114" s="15"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="12"/>
     </row>
     <row r="115" spans="7:8">
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
     </row>
     <row r="116" spans="7:8">
-      <c r="G116" s="9"/>
-      <c r="H116" s="15"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="12"/>
     </row>
     <row r="117" spans="7:8">
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
     </row>
     <row r="118" spans="7:8">
-      <c r="G118" s="9"/>
-      <c r="H118" s="15"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="12"/>
     </row>
     <row r="119" spans="7:8">
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
     </row>
     <row r="120" spans="7:8">
-      <c r="G120" s="9"/>
-      <c r="H120" s="15"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="12"/>
     </row>
     <row r="121" spans="7:8">
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
     </row>
     <row r="122" spans="7:8">
-      <c r="G122" s="9"/>
-      <c r="H122" s="15"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="12"/>
     </row>
     <row r="123" spans="7:8">
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
     </row>
     <row r="124" spans="7:8">
-      <c r="G124" s="9"/>
-      <c r="H124" s="15"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="12"/>
     </row>
     <row r="125" spans="7:8">
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
     </row>
     <row r="126" spans="7:8">
-      <c r="G126" s="9"/>
-      <c r="H126" s="15"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="12"/>
     </row>
     <row r="127" spans="7:8">
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
     </row>
     <row r="128" spans="7:8">
-      <c r="G128" s="9"/>
-      <c r="H128" s="15"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="12"/>
     </row>
     <row r="129" spans="7:8">
-      <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
     </row>
     <row r="130" spans="7:8">
-      <c r="G130" s="9"/>
-      <c r="H130" s="15"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="12"/>
     </row>
     <row r="131" spans="7:8">
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
     </row>
     <row r="132" spans="7:8">
-      <c r="G132" s="9"/>
-      <c r="H132" s="15"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="12"/>
     </row>
     <row r="133" spans="7:8">
-      <c r="G133" s="9"/>
-      <c r="H133" s="9"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
     </row>
     <row r="134" spans="7:8">
-      <c r="G134" s="9"/>
-      <c r="H134" s="15"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="12"/>
     </row>
     <row r="135" spans="7:8">
-      <c r="G135" s="9"/>
-      <c r="H135" s="9"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
     </row>
     <row r="136" spans="7:8">
-      <c r="G136" s="9"/>
-      <c r="H136" s="15"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="12"/>
     </row>
     <row r="137" spans="7:8">
-      <c r="G137" s="9"/>
-      <c r="H137" s="9"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
     </row>
     <row r="138" spans="7:8">
-      <c r="G138" s="9"/>
-      <c r="H138" s="15"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="12"/>
     </row>
     <row r="139" spans="7:8">
-      <c r="G139" s="9"/>
-      <c r="H139" s="9"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
     </row>
     <row r="140" spans="7:8">
-      <c r="G140" s="9"/>
-      <c r="H140" s="15"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="12"/>
     </row>
     <row r="141" spans="7:8">
-      <c r="G141" s="9"/>
-      <c r="H141" s="9"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
     </row>
     <row r="142" spans="7:8">
-      <c r="G142" s="9"/>
-      <c r="H142" s="15"/>
+      <c r="G142" s="8"/>
+      <c r="H142" s="12"/>
     </row>
     <row r="143" spans="7:8">
-      <c r="G143" s="9"/>
-      <c r="H143" s="9"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
     </row>
     <row r="144" spans="7:8">
-      <c r="G144" s="9"/>
-      <c r="H144" s="15"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="12"/>
     </row>
     <row r="145" spans="7:8">
-      <c r="G145" s="9"/>
-      <c r="H145" s="9"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
     </row>
     <row r="146" spans="7:8">
-      <c r="G146" s="9"/>
-      <c r="H146" s="15"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="12"/>
     </row>
     <row r="147" spans="7:8">
-      <c r="G147" s="9"/>
-      <c r="H147" s="9"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
     </row>
     <row r="148" spans="7:8">
-      <c r="G148" s="9"/>
-      <c r="H148" s="15"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="12"/>
     </row>
     <row r="149" spans="7:8">
-      <c r="G149" s="9"/>
-      <c r="H149" s="9"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
     </row>
     <row r="150" spans="7:8">
-      <c r="G150" s="9"/>
-      <c r="H150" s="15"/>
+      <c r="G150" s="8"/>
+      <c r="H150" s="12"/>
     </row>
     <row r="151" spans="7:8">
-      <c r="G151" s="9"/>
-      <c r="H151" s="9"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
     </row>
     <row r="152" spans="7:8">
-      <c r="G152" s="9"/>
-      <c r="H152" s="15"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="12"/>
     </row>
     <row r="153" spans="7:8">
-      <c r="G153" s="9"/>
-      <c r="H153" s="9"/>
+      <c r="G153" s="8"/>
+      <c r="H153" s="8"/>
     </row>
     <row r="154" spans="7:8">
-      <c r="G154" s="9"/>
-      <c r="H154" s="15"/>
+      <c r="G154" s="8"/>
+      <c r="H154" s="12"/>
     </row>
     <row r="155" spans="7:8">
-      <c r="G155" s="9"/>
-      <c r="H155" s="9"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
     </row>
     <row r="156" spans="7:8">
-      <c r="G156" s="9"/>
-      <c r="H156" s="15"/>
+      <c r="G156" s="8"/>
+      <c r="H156" s="12"/>
     </row>
     <row r="157" spans="7:8">
-      <c r="G157" s="9"/>
-      <c r="H157" s="9"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
     </row>
     <row r="158" spans="7:8">
-      <c r="G158" s="9"/>
-      <c r="H158" s="15"/>
+      <c r="G158" s="8"/>
+      <c r="H158" s="12"/>
     </row>
     <row r="159" spans="7:8">
-      <c r="G159" s="9"/>
-      <c r="H159" s="9"/>
+      <c r="G159" s="8"/>
+      <c r="H159" s="8"/>
     </row>
     <row r="160" spans="7:8">
-      <c r="G160" s="9"/>
-      <c r="H160" s="15"/>
+      <c r="G160" s="8"/>
+      <c r="H160" s="12"/>
     </row>
     <row r="161" spans="7:8">
-      <c r="G161" s="9"/>
-      <c r="H161" s="9"/>
+      <c r="G161" s="8"/>
+      <c r="H161" s="8"/>
     </row>
     <row r="162" spans="7:8">
-      <c r="G162" s="9"/>
-      <c r="H162" s="15"/>
+      <c r="G162" s="8"/>
+      <c r="H162" s="12"/>
     </row>
     <row r="163" spans="7:8">
-      <c r="G163" s="9"/>
-      <c r="H163" s="9"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
     </row>
     <row r="164" spans="7:8">
-      <c r="G164" s="9"/>
-      <c r="H164" s="15"/>
+      <c r="G164" s="8"/>
+      <c r="H164" s="12"/>
     </row>
     <row r="165" spans="7:8">
-      <c r="G165" s="9"/>
-      <c r="H165" s="9"/>
+      <c r="G165" s="8"/>
+      <c r="H165" s="8"/>
     </row>
     <row r="166" spans="7:8">
-      <c r="G166" s="9"/>
-      <c r="H166" s="15"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="12"/>
     </row>
     <row r="167" spans="7:8">
-      <c r="G167" s="9"/>
-      <c r="H167" s="9"/>
+      <c r="G167" s="8"/>
+      <c r="H167" s="8"/>
     </row>
     <row r="168" spans="7:8">
-      <c r="G168" s="9"/>
-      <c r="H168" s="15"/>
+      <c r="G168" s="8"/>
+      <c r="H168" s="12"/>
     </row>
     <row r="169" spans="7:8">
-      <c r="G169" s="9"/>
-      <c r="H169" s="9"/>
+      <c r="G169" s="8"/>
+      <c r="H169" s="8"/>
     </row>
     <row r="170" spans="7:8">
-      <c r="G170" s="9"/>
-      <c r="H170" s="15"/>
+      <c r="G170" s="8"/>
+      <c r="H170" s="12"/>
     </row>
     <row r="171" spans="7:8">
-      <c r="G171" s="9"/>
-      <c r="H171" s="9"/>
+      <c r="G171" s="8"/>
+      <c r="H171" s="8"/>
     </row>
     <row r="172" spans="7:8">
-      <c r="G172" s="9"/>
-      <c r="H172" s="15"/>
+      <c r="G172" s="8"/>
+      <c r="H172" s="12"/>
     </row>
     <row r="173" spans="7:8">
-      <c r="G173" s="9"/>
-      <c r="H173" s="9"/>
+      <c r="G173" s="8"/>
+      <c r="H173" s="8"/>
     </row>
     <row r="174" spans="7:8">
-      <c r="G174" s="9"/>
-      <c r="H174" s="15"/>
+      <c r="G174" s="8"/>
+      <c r="H174" s="12"/>
     </row>
     <row r="175" spans="7:8">
-      <c r="G175" s="9"/>
-      <c r="H175" s="9"/>
+      <c r="G175" s="8"/>
+      <c r="H175" s="8"/>
     </row>
     <row r="176" spans="7:8">
-      <c r="G176" s="9"/>
-      <c r="H176" s="15"/>
+      <c r="G176" s="8"/>
+      <c r="H176" s="12"/>
     </row>
     <row r="177" spans="7:8">
-      <c r="G177" s="9"/>
-      <c r="H177" s="9"/>
+      <c r="G177" s="8"/>
+      <c r="H177" s="8"/>
     </row>
     <row r="178" spans="7:8">
-      <c r="G178" s="9"/>
-      <c r="H178" s="15"/>
+      <c r="G178" s="8"/>
+      <c r="H178" s="12"/>
     </row>
     <row r="179" spans="7:8">
-      <c r="G179" s="9"/>
-      <c r="H179" s="9"/>
+      <c r="G179" s="8"/>
+      <c r="H179" s="8"/>
     </row>
     <row r="180" spans="7:8">
-      <c r="G180" s="9"/>
-      <c r="H180" s="15"/>
+      <c r="G180" s="8"/>
+      <c r="H180" s="12"/>
     </row>
     <row r="181" spans="7:8">
-      <c r="G181" s="9"/>
-      <c r="H181" s="9"/>
+      <c r="G181" s="8"/>
+      <c r="H181" s="8"/>
     </row>
     <row r="182" spans="7:8">
-      <c r="G182" s="9"/>
-      <c r="H182" s="15"/>
+      <c r="G182" s="8"/>
+      <c r="H182" s="12"/>
     </row>
     <row r="183" spans="7:8">
-      <c r="G183" s="9"/>
-      <c r="H183" s="9"/>
+      <c r="G183" s="8"/>
+      <c r="H183" s="8"/>
     </row>
     <row r="184" spans="7:8">
-      <c r="G184" s="9"/>
-      <c r="H184" s="15"/>
+      <c r="G184" s="8"/>
+      <c r="H184" s="12"/>
     </row>
     <row r="185" spans="7:8">
-      <c r="G185" s="9"/>
-      <c r="H185" s="9"/>
+      <c r="G185" s="8"/>
+      <c r="H185" s="8"/>
     </row>
     <row r="186" spans="7:8">
-      <c r="G186" s="9"/>
-      <c r="H186" s="15"/>
+      <c r="G186" s="8"/>
+      <c r="H186" s="12"/>
     </row>
     <row r="187" spans="7:8">
-      <c r="G187" s="9"/>
-      <c r="H187" s="9"/>
+      <c r="G187" s="8"/>
+      <c r="H187" s="8"/>
     </row>
     <row r="188" spans="7:8">
-      <c r="G188" s="9"/>
-      <c r="H188" s="15"/>
+      <c r="G188" s="8"/>
+      <c r="H188" s="12"/>
     </row>
     <row r="189" spans="7:8">
-      <c r="G189" s="9"/>
-      <c r="H189" s="9"/>
+      <c r="G189" s="8"/>
+      <c r="H189" s="8"/>
     </row>
     <row r="190" spans="7:8">
-      <c r="G190" s="9"/>
-      <c r="H190" s="15"/>
+      <c r="G190" s="8"/>
+      <c r="H190" s="12"/>
     </row>
     <row r="191" spans="7:8">
-      <c r="G191" s="9"/>
-      <c r="H191" s="9"/>
+      <c r="G191" s="8"/>
+      <c r="H191" s="8"/>
     </row>
     <row r="192" spans="7:8">
-      <c r="G192" s="9"/>
-      <c r="H192" s="15"/>
+      <c r="G192" s="8"/>
+      <c r="H192" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sigrity команды.xlsx
+++ b/sigrity команды.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\пособие\sigrity-rus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D69FD66-63FB-463D-B6A1-542E0FA18584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40223B4-DEA1-4C45-96D7-D3B5FC10FE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Список команд" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="267">
   <si>
     <t>Цепи</t>
   </si>
@@ -804,6 +804,42 @@
   </si>
   <si>
     <t xml:space="preserve">назначить полярность цепям {D_M_VE} и  {D_P_VE} </t>
+  </si>
+  <si>
+    <t>Слою (не проводнику) medium$43 присвоить значение сырья FR4-22</t>
+  </si>
+  <si>
+    <t>sigrity::update layer model_name {FR4-22} {Medium$43} {!}</t>
+  </si>
+  <si>
+    <t>sigrity::update layer dielectric_name {FR4-22} {Signal$GND} {!}</t>
+  </si>
+  <si>
+    <t>Слою (проводнику) Signal$GND присвоить значение сырья FR4-22</t>
+  </si>
+  <si>
+    <t>sigrity::update dielectric_material {!}</t>
+  </si>
+  <si>
+    <t>сохранить значение слоёв</t>
+  </si>
+  <si>
+    <t>sigrity::update layer auto_special_void {0} {Signal$BOTTOM} {!}</t>
+  </si>
+  <si>
+    <t>Выключить AutoSpecialVoid для слоя Signal$BOTTOM</t>
+  </si>
+  <si>
+    <t>sigrity::update layer auto_special_void {1} {Signal$BOTTOM} {!}</t>
+  </si>
+  <si>
+    <t>Включить AutoSpecialVoid для слоя Signal$BOTTOM</t>
+  </si>
+  <si>
+    <t>sigrity::update layer thickness 3.6000e-05 {Signal$BOTTOM} {!}</t>
+  </si>
+  <si>
+    <t>Задать толщину 0.036 для слоя Signal$BOTTOM</t>
   </si>
 </sst>
 </file>
@@ -995,6 +1031,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1007,7 +1044,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1223,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D1:G1004"/>
+  <dimension ref="D1:G1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1"/>
@@ -1400,10 +1436,10 @@
       </c>
     </row>
     <row r="23" spans="4:6" ht="14.25" customHeight="1">
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="14" t="s">
         <v>254</v>
       </c>
     </row>
@@ -1536,516 +1572,558 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="55" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="54" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D54" t="s">
+        <v>256</v>
+      </c>
+      <c r="E54" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D55" t="s">
+        <v>257</v>
+      </c>
+      <c r="E55" t="s">
+        <v>258</v>
+      </c>
+    </row>
     <row r="56" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D56" s="1" t="s">
-        <v>55</v>
+      <c r="D56" t="s">
+        <v>259</v>
+      </c>
+      <c r="E56" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D57" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="59" spans="4:5" ht="14.25" customHeight="1"/>
+      <c r="D57" t="s">
+        <v>261</v>
+      </c>
+      <c r="E57" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D58" t="s">
+        <v>263</v>
+      </c>
+      <c r="E58" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D59" t="s">
+        <v>265</v>
+      </c>
+      <c r="E59" t="s">
+        <v>266</v>
+      </c>
+    </row>
     <row r="60" spans="4:5" ht="14.25" customHeight="1"/>
     <row r="61" spans="4:5" ht="14.25" customHeight="1"/>
     <row r="62" spans="4:5" ht="14.25" customHeight="1"/>
     <row r="63" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="64" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="65" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="64" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D64" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D65" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="66" spans="4:5" ht="14.25" customHeight="1"/>
     <row r="67" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="68" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D68" s="1" t="s">
+    <row r="68" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="69" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="70" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="71" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="72" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="73" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="74" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="75" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="76" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D76" s="1" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D69" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="71" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D71" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D72" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="73" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D73" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="74" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D74" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="75" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D75" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D76" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="77" spans="4:5" ht="14.25" customHeight="1">
       <c r="D77" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D78" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5" ht="14.25" customHeight="1"/>
     <row r="79" spans="4:5" ht="14.25" customHeight="1">
       <c r="D79" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="4:5" ht="14.25" customHeight="1">
       <c r="D80" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D81" s="4" t="s">
-        <v>83</v>
+      <c r="D81" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D82" s="4" t="s">
-        <v>85</v>
+      <c r="D82" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="4:5" ht="14.25" customHeight="1">
       <c r="D83" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D84" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D85" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D86" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D87" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D88" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D89" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D90" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D91" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E91" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D84" s="8" t="s">
+    <row r="92" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D92" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E92" s="8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="85" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D85" s="8" t="s">
+    <row r="93" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D93" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E85" s="14" t="s">
+      <c r="E93" s="15" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D86" s="8" t="s">
+    <row r="94" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D94" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E86" s="14"/>
-    </row>
-    <row r="87" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D87" s="8" t="s">
+      <c r="E94" s="15"/>
+    </row>
+    <row r="95" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D95" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E87" s="14"/>
-    </row>
-    <row r="88" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="89" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="90" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="91" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D91" s="7" t="s">
+      <c r="E95" s="15"/>
+    </row>
+    <row r="96" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="97" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="98" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="99" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D99" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="92" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D92" t="s">
+    <row r="100" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D100" t="s">
         <v>135</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E100" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="93" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D93" t="s">
+    <row r="101" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D101" t="s">
         <v>136</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E101" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="95" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="96" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="97" spans="4:4" ht="14.25" customHeight="1"/>
-    <row r="98" spans="4:4" ht="14.25" customHeight="1"/>
-    <row r="99" spans="4:4" ht="14.25" customHeight="1"/>
-    <row r="100" spans="4:4" ht="14.25" customHeight="1"/>
-    <row r="101" spans="4:4" ht="14.25" customHeight="1"/>
-    <row r="102" spans="4:4" ht="14.25" customHeight="1"/>
-    <row r="103" spans="4:4" ht="14.25" customHeight="1"/>
-    <row r="104" spans="4:4" ht="14.25" customHeight="1"/>
-    <row r="105" spans="4:4" ht="14.25" customHeight="1"/>
-    <row r="106" spans="4:4" ht="14.25" customHeight="1"/>
-    <row r="107" spans="4:4" ht="14.25" customHeight="1"/>
-    <row r="108" spans="4:4" ht="14.25" customHeight="1"/>
-    <row r="109" spans="4:4" ht="14.25" customHeight="1">
-      <c r="D109" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="110" spans="4:4" ht="14.25" customHeight="1"/>
-    <row r="111" spans="4:4" ht="14.25" customHeight="1"/>
-    <row r="112" spans="4:4" ht="14.25" customHeight="1"/>
-    <row r="113" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D113" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="114" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D114" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
+    <row r="102" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="103" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="104" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="105" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="106" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="107" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="108" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="109" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="110" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="111" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="112" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="113" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="114" spans="4:5" ht="14.25" customHeight="1"/>
     <row r="115" spans="4:5" ht="14.25" customHeight="1"/>
     <row r="116" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="117" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="117" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D117" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
     <row r="118" spans="4:5" ht="14.25" customHeight="1"/>
     <row r="119" spans="4:5" ht="14.25" customHeight="1"/>
     <row r="120" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="121" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="122" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="123" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D123" s="1" t="s">
+    <row r="121" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D121" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D122" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="123" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="124" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="125" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="126" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="127" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="128" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="129" spans="4:6" ht="14.25" customHeight="1"/>
+    <row r="130" spans="4:6" ht="14.25" customHeight="1"/>
+    <row r="131" spans="4:6" ht="14.25" customHeight="1">
+      <c r="D131" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="124" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D124" s="2" t="s">
+    <row r="132" spans="4:6" ht="14.25" customHeight="1">
+      <c r="D132" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E132" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="125" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D125" s="2" t="s">
+    <row r="133" spans="4:6" ht="14.25" customHeight="1">
+      <c r="D133" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="E133" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="126" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D126" s="2" t="s">
+    <row r="134" spans="4:6" ht="14.25" customHeight="1">
+      <c r="D134" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E134" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="127" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D127" s="4" t="s">
+    <row r="135" spans="4:6" ht="14.25" customHeight="1">
+      <c r="D135" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E135" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="128" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="129" spans="4:7" ht="14.25" customHeight="1"/>
-    <row r="130" spans="4:7" ht="14.25" customHeight="1"/>
-    <row r="131" spans="4:7" ht="14.25" customHeight="1"/>
-    <row r="132" spans="4:7" ht="14.25" customHeight="1">
-      <c r="D132" s="7" t="s">
+    <row r="136" spans="4:6" ht="14.25" customHeight="1"/>
+    <row r="137" spans="4:6" ht="14.25" customHeight="1"/>
+    <row r="138" spans="4:6" ht="14.25" customHeight="1"/>
+    <row r="139" spans="4:6" ht="14.25" customHeight="1"/>
+    <row r="140" spans="4:6" ht="14.25" customHeight="1">
+      <c r="D140" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="133" spans="4:7" ht="14.25" customHeight="1">
-      <c r="D133" s="2" t="s">
+    <row r="141" spans="4:6" ht="14.25" customHeight="1">
+      <c r="D141" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="E141" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="134" spans="4:7" ht="14.25" customHeight="1">
-      <c r="D134" s="8" t="s">
+    <row r="142" spans="4:6" ht="14.25" customHeight="1">
+      <c r="D142" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E134" s="8" t="s">
+      <c r="E142" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="14.25" customHeight="1">
-      <c r="D135" t="s">
+    <row r="143" spans="4:6" ht="14.25" customHeight="1">
+      <c r="D143" t="s">
         <v>172</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E143" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="136" spans="4:7" ht="14.25" customHeight="1">
-      <c r="D136" t="s">
+    <row r="144" spans="4:6" ht="14.25" customHeight="1">
+      <c r="D144" t="s">
         <v>249</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E144" t="s">
         <v>250</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F144" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="137" spans="4:7" ht="14.25" customHeight="1">
-      <c r="D137" t="s">
+    <row r="145" spans="4:7" ht="14.25" customHeight="1">
+      <c r="D145" t="s">
         <v>174</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E145" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="138" spans="4:7" ht="14.25" customHeight="1">
-      <c r="D138" t="s">
+    <row r="146" spans="4:7" ht="14.25" customHeight="1">
+      <c r="D146" t="s">
         <v>247</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E146" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="14.25" customHeight="1">
-      <c r="D139" t="s">
+    <row r="147" spans="4:7" ht="14.25" customHeight="1">
+      <c r="D147" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="140" spans="4:7" ht="14.25" customHeight="1"/>
-    <row r="141" spans="4:7" ht="14.25" customHeight="1"/>
-    <row r="142" spans="4:7" ht="14.25" customHeight="1"/>
-    <row r="143" spans="4:7" ht="14.25" customHeight="1">
-      <c r="D143" s="7" t="s">
+    <row r="148" spans="4:7" ht="14.25" customHeight="1"/>
+    <row r="149" spans="4:7" ht="14.25" customHeight="1"/>
+    <row r="150" spans="4:7" ht="14.25" customHeight="1"/>
+    <row r="151" spans="4:7" ht="14.25" customHeight="1">
+      <c r="D151" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="144" spans="4:7" ht="21.95" customHeight="1">
-      <c r="D144" s="8" t="s">
+    <row r="152" spans="4:7" ht="21.95" customHeight="1">
+      <c r="D152" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E144" s="8" t="s">
+      <c r="E152" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F152" t="s">
         <v>142</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G152" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="146" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="147" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="148" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="149" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D149" s="7" t="s">
+    <row r="153" spans="4:7" ht="14.25" customHeight="1"/>
+    <row r="154" spans="4:7" ht="14.25" customHeight="1"/>
+    <row r="155" spans="4:7" ht="14.25" customHeight="1"/>
+    <row r="156" spans="4:7" ht="14.25" customHeight="1"/>
+    <row r="157" spans="4:7" ht="14.25" customHeight="1">
+      <c r="D157" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="150" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D150" s="9" t="s">
+    <row r="158" spans="4:7" ht="14.25" customHeight="1">
+      <c r="D158" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="E150" s="9" t="s">
+      <c r="E158" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="151" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D151" s="9" t="s">
+    <row r="159" spans="4:7" ht="14.25" customHeight="1">
+      <c r="D159" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E151" s="9" t="s">
+      <c r="E159" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="152" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D152" s="9" t="s">
+    <row r="160" spans="4:7" ht="14.25" customHeight="1">
+      <c r="D160" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E152" s="9" t="s">
+      <c r="E160" s="9" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="153" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D153" s="9" t="s">
+    <row r="161" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D161" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E153" s="9" t="s">
+      <c r="E161" s="9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="154" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D154" s="9" t="s">
+    <row r="162" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D162" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E154" s="9" t="s">
+      <c r="E162" s="9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="155" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D155" s="15" t="s">
+    <row r="163" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D163" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="E155" s="16" t="s">
+      <c r="E163" s="17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="156" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D156" s="15"/>
-      <c r="E156" s="17"/>
-    </row>
-    <row r="157" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D157" s="11" t="s">
+    <row r="164" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D164" s="16"/>
+      <c r="E164" s="18"/>
+    </row>
+    <row r="165" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D165" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E157" s="9" t="s">
+      <c r="E165" s="9" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="158" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D158" s="11" t="s">
+    <row r="166" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D166" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="E158" s="11" t="s">
+      <c r="E166" s="11" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="159" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D159" s="11" t="s">
+    <row r="167" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D167" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="E159" s="11" t="s">
+      <c r="E167" s="11" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="160" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="161" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="162" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="163" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D163" s="7" t="s">
+    <row r="168" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="169" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="170" spans="4:5" ht="14.25" customHeight="1"/>
+    <row r="171" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D171" s="7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="164" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D164" s="2" t="s">
+    <row r="172" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D172" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="E172" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="165" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="166" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="167" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D167" t="s">
-        <v>239</v>
-      </c>
-      <c r="E167" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="168" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D168" t="s">
-        <v>241</v>
-      </c>
-      <c r="E168" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="169" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D169" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="170" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="171" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="172" spans="4:5" ht="14.25" customHeight="1"/>
     <row r="173" spans="4:5" ht="14.25" customHeight="1"/>
     <row r="174" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="175" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="176" spans="4:5" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="175" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D175" t="s">
+        <v>239</v>
+      </c>
+      <c r="E175" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="176" spans="4:5" ht="14.25" customHeight="1">
+      <c r="D176" t="s">
+        <v>241</v>
+      </c>
+      <c r="E176" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="177" spans="4:4" ht="14.25" customHeight="1">
+      <c r="D177" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="178" spans="4:4" ht="14.25" customHeight="1"/>
+    <row r="179" spans="4:4" ht="14.25" customHeight="1"/>
+    <row r="180" spans="4:4" ht="14.25" customHeight="1"/>
+    <row r="181" spans="4:4" ht="14.25" customHeight="1"/>
+    <row r="182" spans="4:4" ht="14.25" customHeight="1"/>
+    <row r="183" spans="4:4" ht="14.25" customHeight="1"/>
+    <row r="184" spans="4:4" ht="14.25" customHeight="1"/>
+    <row r="185" spans="4:4" ht="14.25" customHeight="1"/>
+    <row r="186" spans="4:4" ht="14.25" customHeight="1"/>
+    <row r="187" spans="4:4" ht="14.25" customHeight="1"/>
+    <row r="188" spans="4:4" ht="14.25" customHeight="1"/>
+    <row r="189" spans="4:4" ht="14.25" customHeight="1"/>
+    <row r="190" spans="4:4" ht="14.25" customHeight="1"/>
+    <row r="191" spans="4:4" ht="14.25" customHeight="1"/>
+    <row r="192" spans="4:4" ht="14.25" customHeight="1"/>
     <row r="193" ht="14.25" customHeight="1"/>
     <row r="194" ht="14.25" customHeight="1"/>
     <row r="195" ht="14.25" customHeight="1"/>
@@ -2858,11 +2936,19 @@
     <row r="1002" ht="14.25" customHeight="1"/>
     <row r="1003" ht="14.25" customHeight="1"/>
     <row r="1004" ht="14.25" customHeight="1"/>
+    <row r="1005" ht="14.25" customHeight="1"/>
+    <row r="1006" ht="14.25" customHeight="1"/>
+    <row r="1007" ht="14.25" customHeight="1"/>
+    <row r="1008" ht="14.25" customHeight="1"/>
+    <row r="1009" ht="14.25" customHeight="1"/>
+    <row r="1010" ht="14.25" customHeight="1"/>
+    <row r="1011" ht="14.25" customHeight="1"/>
+    <row r="1012" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="D155:D156"/>
-    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="E93:E95"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="E163:E164"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
